--- a/HW5/HW5_data_files/HW5_calculations_v2.xlsx
+++ b/HW5/HW5_data_files/HW5_calculations_v2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{638BE007-1967-45EC-A530-FF8E74EFE70C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prod_Attr" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <sheet name="OD_convert 2025" sheetId="4" r:id="rId4"/>
     <sheet name="Mode Share" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -269,9 +270,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -312,17 +313,17 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,6 +417,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -451,6 +469,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -626,16 +661,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -643,49 +678,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -695,24 +730,24 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>2015</v>
       </c>
@@ -738,7 +773,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -746,7 +781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -781,7 +816,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -816,7 +851,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -851,7 +886,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -886,7 +921,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -894,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -929,7 +964,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -937,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -948,7 +983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -956,7 +991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -973,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -990,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1007,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1024,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>SUM(B18:B21)</f>
         <v>3375</v>
@@ -1034,7 +1069,7 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1045,7 +1080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1053,7 +1088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1077,7 +1112,7 @@
         <v>686.78235294117644</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1101,7 +1136,7 @@
         <v>943.02968664101149</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1125,7 +1160,7 @@
         <v>1047.2073117097307</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1149,7 +1184,7 @@
         <v>915.38064870808137</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>SUM(B27:B30)</f>
         <v>3592.4</v>
@@ -1161,34 +1196,34 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R66"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="L50" sqref="L50:O53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1196,7 +1231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1228,7 +1263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1260,7 +1295,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1292,7 +1327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1324,7 +1359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1356,7 +1391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1364,7 +1399,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1405,7 +1440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1452,7 +1487,7 @@
         <v>0.83246345811051692</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1499,7 +1534,7 @@
         <v>1.2168124988916278</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1546,7 +1581,7 @@
         <v>1.1507772656150888</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1593,7 +1628,7 @@
         <v>1.0582435245180131</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1637,7 +1672,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
         <v>26</v>
       </c>
@@ -1654,7 +1689,7 @@
         <v>932.6</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1675,7 +1710,7 @@
         <v>1.0420111731843575</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1692,7 +1727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1716,7 +1751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1758,7 +1793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1809,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1860,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K22">
         <v>3</v>
       </c>
@@ -1892,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1931,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1959,7 +1994,7 @@
         <v>1004.7366399578947</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K25" t="s">
         <v>26</v>
       </c>
@@ -1976,7 +2011,7 @@
         <v>932.6</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L26">
         <f>L25/L24</f>
         <v>1.1602854845022561</v>
@@ -1994,12 +2029,12 @@
         <v>0.92820343452298337</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
         <v>12</v>
       </c>
@@ -2022,7 +2057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K30">
         <v>1</v>
       </c>
@@ -2054,7 +2089,7 @@
         <v>0.95924284541683558</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K31">
         <v>2</v>
       </c>
@@ -2086,7 +2121,7 @@
         <v>0.89083853164996973</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K32">
         <v>3</v>
       </c>
@@ -2118,7 +2153,7 @@
         <v>0.95318088373766241</v>
       </c>
     </row>
-    <row r="33" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="33" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K33">
         <v>4</v>
       </c>
@@ -2150,7 +2185,7 @@
         <v>0.95297724763157343</v>
       </c>
     </row>
-    <row r="34" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
         <v>25</v>
       </c>
@@ -2175,7 +2210,7 @@
         <v>3833.742681922105</v>
       </c>
     </row>
-    <row r="35" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
         <v>26</v>
       </c>
@@ -2192,7 +2227,7 @@
         <v>932.6</v>
       </c>
     </row>
-    <row r="36" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="11:18" x14ac:dyDescent="0.25">
       <c r="L36">
         <f>L35/L34</f>
         <v>0.97295700247620409</v>
@@ -2210,12 +2245,12 @@
         <v>0.89078069257781478</v>
       </c>
     </row>
-    <row r="38" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="38" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="39" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K39" t="s">
         <v>12</v>
       </c>
@@ -2238,7 +2273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K40">
         <v>1</v>
       </c>
@@ -2270,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="41" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K41">
         <v>2</v>
       </c>
@@ -2302,7 +2337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="42" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K42">
         <v>3</v>
       </c>
@@ -2334,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="43" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K43">
         <v>4</v>
       </c>
@@ -2366,7 +2401,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="44" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="44" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
         <v>25</v>
       </c>
@@ -2387,7 +2422,7 @@
         <v>980.49943963270005</v>
       </c>
     </row>
-    <row r="45" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="45" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K45" t="s">
         <v>26</v>
       </c>
@@ -2404,7 +2439,7 @@
         <v>932.6</v>
       </c>
     </row>
-    <row r="46" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="46" spans="11:18" x14ac:dyDescent="0.25">
       <c r="L46">
         <f>L45/L44</f>
         <v>1.0301635023303191</v>
@@ -2422,12 +2457,12 @@
         <v>0.95114791738112225</v>
       </c>
     </row>
-    <row r="48" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="48" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="49" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K49" t="s">
         <v>12</v>
       </c>
@@ -2450,7 +2485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="50" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K50">
         <v>1</v>
       </c>
@@ -2482,7 +2517,7 @@
         <v>0.97799976780205045</v>
       </c>
     </row>
-    <row r="51" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="51" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K51">
         <v>2</v>
       </c>
@@ -2514,7 +2549,7 @@
         <v>1.0173668973521126</v>
       </c>
     </row>
-    <row r="52" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="52" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K52">
         <v>3</v>
       </c>
@@ -2546,7 +2581,7 @@
         <v>1.0054288309707673</v>
       </c>
     </row>
-    <row r="53" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="53" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K53">
         <v>4</v>
       </c>
@@ -2578,7 +2613,7 @@
         <v>0.99316133660578587</v>
       </c>
     </row>
-    <row r="54" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="54" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K54" t="s">
         <v>25</v>
       </c>
@@ -2603,7 +2638,7 @@
         <v>3592.3999999999996</v>
       </c>
     </row>
-    <row r="55" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="55" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K55" t="s">
         <v>26</v>
       </c>
@@ -2620,7 +2655,7 @@
         <v>932.6</v>
       </c>
     </row>
-    <row r="56" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="56" spans="11:18" x14ac:dyDescent="0.25">
       <c r="L56">
         <f>L55/L54</f>
         <v>1</v>
@@ -2638,12 +2673,12 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="58" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="58" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K58" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="59" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K59" t="s">
         <v>12</v>
       </c>
@@ -2660,7 +2695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="60" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K60">
         <v>1</v>
       </c>
@@ -2681,7 +2716,7 @@
         <v>1068.4346230167389</v>
       </c>
     </row>
-    <row r="61" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="61" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K61">
         <v>2</v>
       </c>
@@ -2706,7 +2741,7 @@
         <v>9559.9111185792226</v>
       </c>
     </row>
-    <row r="62" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="62" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K62">
         <v>3</v>
       </c>
@@ -2727,7 +2762,7 @@
         <v>4109.4039530657874</v>
       </c>
     </row>
-    <row r="63" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="63" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K63">
         <v>4</v>
       </c>
@@ -2748,13 +2783,13 @@
         <v>524.7444961944359</v>
       </c>
     </row>
-    <row r="64" spans="11:18" x14ac:dyDescent="0.4">
+    <row r="64" spans="11:18" x14ac:dyDescent="0.25">
       <c r="M64">
         <f>SUM(M60:M63)</f>
         <v>9878.4695845119568</v>
       </c>
     </row>
-    <row r="65" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K65" t="s">
         <v>31</v>
       </c>
@@ -2763,7 +2798,7 @@
         <v>36781.818163954791</v>
       </c>
     </row>
-    <row r="66" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K66" t="s">
         <v>30</v>
       </c>
@@ -2778,49 +2813,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="1"/>
       <c r="C3" t="s">
         <v>38</v>
       </c>
@@ -2846,12 +2881,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -2880,7 +2915,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2909,7 +2944,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2938,17 +2973,17 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2965,7 +3000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2982,7 +3017,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2999,7 +3034,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3016,7 +3051,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -3033,55 +3068,33 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16">
-        <v>828.8637491131999</v>
+        <f>SUM(B12:B15)</f>
+        <v>710</v>
       </c>
       <c r="C16">
-        <v>772.43698829598952</v>
+        <f t="shared" ref="C16:E16" si="0">SUM(C12:C15)</f>
+        <v>800</v>
       </c>
       <c r="D16">
-        <v>891.50214796352475</v>
+        <f t="shared" si="0"/>
+        <v>970</v>
       </c>
       <c r="E16">
-        <v>875.99711462728601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+        <f t="shared" si="0"/>
+        <v>895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17">
-        <v>824.09999999999991</v>
-      </c>
-      <c r="C17">
-        <v>771.9</v>
-      </c>
-      <c r="D17">
-        <v>910</v>
-      </c>
-      <c r="E17">
-        <v>862.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B18">
-        <v>0.99425267528191852</v>
-      </c>
-      <c r="C18">
-        <v>0.99930481281434469</v>
-      </c>
-      <c r="D18">
-        <v>1.0207490829705013</v>
-      </c>
-      <c r="E18">
-        <v>0.98493475103179873</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -3092,7 +3105,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -3139,7 +3152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3148,15 +3161,15 @@
         <v>75</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:E23" si="0">$C$5*C12</f>
+        <f t="shared" ref="C22:E23" si="1">$C$5*C12</f>
         <v>37.5</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112.5</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
       <c r="G22">
@@ -3167,15 +3180,15 @@
         <v>15</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:K22" si="1">$E$5*C12</f>
+        <f t="shared" ref="I22:K22" si="2">$E$5*C12</f>
         <v>7.5</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.5</v>
       </c>
       <c r="K22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="M22">
@@ -3186,19 +3199,19 @@
         <v>10</v>
       </c>
       <c r="O22">
-        <f t="shared" ref="O22:Q22" si="2">$G$5*C12</f>
+        <f t="shared" ref="O22:Q22" si="3">$G$5*C12</f>
         <v>5</v>
       </c>
       <c r="P22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3207,175 +3220,175 @@
         <v>30</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67.5</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:H25" si="3">$E$5*B13</f>
+        <f t="shared" ref="H23:H25" si="4">$E$5*B13</f>
         <v>6</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23:I25" si="4">$E$5*C13</f>
+        <f t="shared" ref="I23:I25" si="5">$E$5*C13</f>
         <v>24</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23:J25" si="5">$E$5*D13</f>
+        <f t="shared" ref="J23:J25" si="6">$E$5*D13</f>
         <v>3</v>
       </c>
       <c r="K23">
-        <f t="shared" ref="K23:K25" si="6">$E$5*E13</f>
+        <f t="shared" ref="K23:K25" si="7">$E$5*E13</f>
         <v>13.5</v>
       </c>
       <c r="M23">
         <v>2</v>
       </c>
       <c r="N23">
-        <f t="shared" ref="N23:N25" si="7">$G$5*B13</f>
+        <f t="shared" ref="N23:N25" si="8">$G$5*B13</f>
         <v>4</v>
       </c>
       <c r="O23">
-        <f t="shared" ref="O23:O25" si="8">$G$5*C13</f>
+        <f t="shared" ref="O23:O25" si="9">$G$5*C13</f>
         <v>16</v>
       </c>
       <c r="P23">
-        <f t="shared" ref="P23:P25" si="9">$G$5*D13</f>
+        <f t="shared" ref="P23:P25" si="10">$G$5*D13</f>
         <v>2</v>
       </c>
       <c r="Q23">
-        <f t="shared" ref="Q23:Q25" si="10">$G$5*E13</f>
+        <f t="shared" ref="Q23:Q25" si="11">$G$5*E13</f>
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:E24" si="11">$C$5*B14</f>
+        <f t="shared" ref="B24:E24" si="12">$C$5*B14</f>
         <v>61.5</v>
       </c>
       <c r="C24">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="12"/>
+        <v>67.5</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="12"/>
+        <v>126</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="5"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="6"/>
+        <v>13.5</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="7"/>
+        <v>25.2</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="8"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="9"/>
+        <v>2.4</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="11"/>
-        <v>18</v>
-      </c>
-      <c r="D24">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:E25" si="13">$C$5*B15</f>
+        <v>46.5</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="13"/>
+        <v>64.5</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="13"/>
+        <v>96</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="13"/>
+        <v>52.5</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>9.2999999999999989</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="5"/>
+        <v>12.9</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="6"/>
+        <v>19.2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="7"/>
+        <v>10.5</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="8"/>
+        <v>6.2</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="9"/>
+        <v>8.6</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="10"/>
+        <v>12.8</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="11"/>
-        <v>67.5</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="11"/>
-        <v>126</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="3"/>
-        <v>12.299999999999999</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="4"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="5"/>
-        <v>13.5</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="6"/>
-        <v>25.2</v>
-      </c>
-      <c r="M24">
-        <v>3</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="7"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="8"/>
-        <v>2.4</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="10"/>
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ref="B25:E25" si="12">$C$5*B15</f>
-        <v>46.5</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="12"/>
-        <v>64.5</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="12"/>
-        <v>96</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="12"/>
-        <v>52.5</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="3"/>
-        <v>9.2999999999999989</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="4"/>
-        <v>12.9</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="5"/>
-        <v>19.2</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="6"/>
-        <v>10.5</v>
-      </c>
-      <c r="M25">
-        <v>4</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="7"/>
-        <v>6.2</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="8"/>
-        <v>8.6</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="9"/>
-        <v>12.8</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -3386,7 +3399,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -3433,24 +3446,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29">
-        <f>$D$5*B22</f>
+        <f t="shared" ref="B29:E32" si="14">$D$5*B22</f>
         <v>0</v>
       </c>
       <c r="C29">
-        <f>$D$5*C22</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D29">
-        <f>$D$5*D22</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f>$D$5*E22</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G29">
@@ -3461,15 +3474,15 @@
         <v>5</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I29:K29" si="13">$F$5*C12</f>
+        <f t="shared" ref="I29:K29" si="15">$F$5*C12</f>
         <v>2.5</v>
       </c>
       <c r="J29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.5</v>
       </c>
       <c r="K29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.5</v>
       </c>
       <c r="M29">
@@ -3480,196 +3493,196 @@
         <v>10</v>
       </c>
       <c r="O29">
-        <f t="shared" ref="O29:Q29" si="14">$H$5*C12</f>
+        <f t="shared" ref="O29:Q29" si="16">$H$5*C12</f>
         <v>5</v>
       </c>
       <c r="P29">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <f>$D$5*B23</f>
         <v>0</v>
       </c>
-      <c r="C30">
-        <f>$D$5*C23</f>
+      <c r="D30">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="D30">
-        <f>$D$5*D23</f>
+      <c r="E30">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E30">
-        <f>$D$5*E23</f>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30:H32" si="17">$F$5*B13</f>
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ref="I30:I32" si="18">$F$5*C13</f>
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30:J32" si="19">$F$5*D13</f>
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:K32" si="20">$F$5*E13</f>
+        <v>4.5</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ref="N30:N32" si="21">$H$5*B13</f>
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ref="O30:O32" si="22">$H$5*C13</f>
+        <v>16</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ref="P30:P32" si="23">$H$5*D13</f>
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ref="Q30:Q32" si="24">$H$5*E13</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <f t="shared" ref="H30:H32" si="15">$F$5*B13</f>
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <f t="shared" ref="I30:I32" si="16">$F$5*C13</f>
-        <v>8</v>
-      </c>
-      <c r="J30">
-        <f t="shared" ref="J30:J32" si="17">$F$5*D13</f>
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <f t="shared" ref="K30:K32" si="18">$F$5*E13</f>
+      <c r="C31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="17"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="18"/>
+        <v>1.2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="19"/>
         <v>4.5</v>
       </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-      <c r="N30">
-        <f t="shared" ref="N30:N32" si="19">$H$5*B13</f>
-        <v>4</v>
-      </c>
-      <c r="O30">
-        <f t="shared" ref="O30:O32" si="20">$H$5*C13</f>
-        <v>16</v>
-      </c>
-      <c r="P30">
-        <f t="shared" ref="P30:P32" si="21">$H$5*D13</f>
-        <v>2</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" ref="Q30:Q32" si="22">$H$5*E13</f>
+      <c r="K31">
+        <f t="shared" si="20"/>
+        <v>8.4</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="21"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="22"/>
+        <v>2.4</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31">
-        <f>$D$5*B24</f>
+      <c r="Q31">
+        <f t="shared" si="24"/>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="C31">
-        <f>$D$5*C24</f>
+      <c r="C32">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="D31">
-        <f>$D$5*D24</f>
+      <c r="D32">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E31">
-        <f>$D$5*E24</f>
+      <c r="E32">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="15"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="16"/>
-        <v>1.2</v>
-      </c>
-      <c r="J31">
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="17"/>
-        <v>4.5</v>
-      </c>
-      <c r="K31">
+        <v>3.1</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="18"/>
-        <v>8.4</v>
-      </c>
-      <c r="M31">
-        <v>3</v>
-      </c>
-      <c r="N31">
+        <v>4.3</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="19"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="O31">
+        <v>6.4</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="20"/>
-        <v>2.4</v>
-      </c>
-      <c r="P31">
+        <v>3.5</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="21"/>
-        <v>9</v>
-      </c>
-      <c r="Q31">
+        <v>6.2</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="22"/>
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32">
-        <f>$D$5*B25</f>
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <f>$D$5*C25</f>
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <f>$D$5*D25</f>
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <f>$D$5*E25</f>
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="15"/>
-        <v>3.1</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="16"/>
-        <v>4.3</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="17"/>
-        <v>6.4</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="18"/>
-        <v>3.5</v>
-      </c>
-      <c r="M32">
-        <v>4</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="19"/>
-        <v>6.2</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="20"/>
         <v>8.6</v>
       </c>
       <c r="P32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>12.8</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -3680,7 +3693,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -3727,24 +3740,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36">
-        <f>B29+B22</f>
+        <f t="shared" ref="B36:E39" si="25">B29+B22</f>
         <v>75</v>
       </c>
       <c r="C36">
-        <f>C29+C22</f>
+        <f t="shared" si="25"/>
         <v>37.5</v>
       </c>
       <c r="D36">
-        <f>D29+D22</f>
+        <f t="shared" si="25"/>
         <v>112.5</v>
       </c>
       <c r="E36">
-        <f>E29+E22</f>
+        <f t="shared" si="25"/>
         <v>22.5</v>
       </c>
       <c r="G36">
@@ -3755,15 +3768,15 @@
         <v>20</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36:K36" si="23">I22+I29</f>
+        <f t="shared" ref="I36:K36" si="26">I22+I29</f>
         <v>10</v>
       </c>
       <c r="J36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>30</v>
       </c>
       <c r="K36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
       <c r="M36">
@@ -3774,196 +3787,196 @@
         <v>20</v>
       </c>
       <c r="O36">
-        <f t="shared" ref="O36:Q36" si="24">O22+O29</f>
+        <f t="shared" ref="O36:Q36" si="27">O22+O29</f>
         <v>10</v>
       </c>
       <c r="P36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>30</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37">
-        <f>B30+B23</f>
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
       <c r="C37">
-        <f>C30+C23</f>
+        <f t="shared" si="25"/>
         <v>120</v>
       </c>
       <c r="D37">
-        <f>D30+D23</f>
+        <f t="shared" si="25"/>
         <v>15</v>
       </c>
       <c r="E37">
-        <f>E30+E23</f>
+        <f t="shared" si="25"/>
         <v>67.5</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:K37" si="25">H23+H30</f>
+        <f t="shared" ref="H37:K37" si="28">H23+H30</f>
         <v>8</v>
       </c>
       <c r="I37">
+        <f t="shared" si="28"/>
+        <v>32</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="28"/>
+        <v>18</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ref="N37:Q37" si="29">N23+N30</f>
+        <v>8</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="29"/>
+        <v>32</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="29"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
         <f t="shared" si="25"/>
-        <v>32</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="K37">
+        <v>61.5</v>
+      </c>
+      <c r="C38">
         <f t="shared" si="25"/>
         <v>18</v>
       </c>
-      <c r="M37">
-        <v>2</v>
-      </c>
-      <c r="N37">
-        <f t="shared" ref="N37:Q37" si="26">N23+N30</f>
-        <v>8</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="26"/>
-        <v>32</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="26"/>
-        <v>4</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="26"/>
+      <c r="D38">
+        <f t="shared" si="25"/>
+        <v>67.5</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="25"/>
+        <v>126</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="H38:K38" si="30">H24+H31</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="30"/>
+        <v>4.8</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="30"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <v>3</v>
-      </c>
-      <c r="B38">
-        <f>B31+B24</f>
-        <v>61.5</v>
-      </c>
-      <c r="C38">
-        <f>C31+C24</f>
+      <c r="K38">
+        <f t="shared" si="30"/>
+        <v>33.6</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ref="N38:Q38" si="31">N24+N31</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="31"/>
+        <v>4.8</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="31"/>
         <v>18</v>
       </c>
-      <c r="D38">
-        <f>D31+D24</f>
-        <v>67.5</v>
-      </c>
-      <c r="E38">
-        <f>E31+E24</f>
-        <v>126</v>
-      </c>
-      <c r="G38">
-        <v>3</v>
-      </c>
-      <c r="H38">
-        <f t="shared" ref="H38:K38" si="27">H24+H31</f>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="27"/>
-        <v>4.8</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="27"/>
-        <v>18</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="27"/>
+      <c r="Q38">
+        <f t="shared" si="31"/>
         <v>33.6</v>
       </c>
-      <c r="M38">
-        <v>3</v>
-      </c>
-      <c r="N38">
-        <f t="shared" ref="N38:Q38" si="28">N24+N31</f>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="28"/>
-        <v>4.8</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="28"/>
-        <v>18</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="28"/>
-        <v>33.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
       <c r="B39">
-        <f>B32+B25</f>
+        <f t="shared" si="25"/>
         <v>46.5</v>
       </c>
       <c r="C39">
-        <f>C32+C25</f>
+        <f t="shared" si="25"/>
         <v>64.5</v>
       </c>
       <c r="D39">
-        <f>D32+D25</f>
+        <f t="shared" si="25"/>
         <v>96</v>
       </c>
       <c r="E39">
-        <f>E32+E25</f>
+        <f t="shared" si="25"/>
         <v>52.5</v>
       </c>
       <c r="G39">
         <v>4</v>
       </c>
       <c r="H39">
-        <f t="shared" ref="H39:K39" si="29">H25+H32</f>
+        <f t="shared" ref="H39:K39" si="32">H25+H32</f>
         <v>12.399999999999999</v>
       </c>
       <c r="I39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>17.2</v>
       </c>
       <c r="J39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>25.6</v>
       </c>
       <c r="K39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>14</v>
       </c>
       <c r="M39">
         <v>4</v>
       </c>
       <c r="N39">
-        <f t="shared" ref="N39:Q39" si="30">N25+N32</f>
+        <f t="shared" ref="N39:Q39" si="33">N25+N32</f>
         <v>12.4</v>
       </c>
       <c r="O39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>17.2</v>
       </c>
       <c r="P39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>25.6</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E40">
         <f>SUM(B36:E39)</f>
         <v>1012.5</v>
@@ -3977,7 +3990,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -3988,7 +4001,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -4035,24 +4048,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44">
-        <f>$C$6*B12</f>
+        <f t="shared" ref="B44:E47" si="34">$C$6*B12</f>
         <v>7.5</v>
       </c>
       <c r="C44">
-        <f>$C$6*C12</f>
+        <f t="shared" si="34"/>
         <v>3.75</v>
       </c>
       <c r="D44">
-        <f>$C$6*D12</f>
+        <f t="shared" si="34"/>
         <v>11.25</v>
       </c>
       <c r="E44">
-        <f>$C$6*E12</f>
+        <f t="shared" si="34"/>
         <v>2.25</v>
       </c>
       <c r="G44">
@@ -4063,15 +4076,15 @@
         <v>22.5</v>
       </c>
       <c r="I44">
-        <f t="shared" ref="I44:K44" si="31">$E$6*C12</f>
+        <f t="shared" ref="I44:K44" si="35">$E$6*C12</f>
         <v>11.25</v>
       </c>
       <c r="J44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>33.75</v>
       </c>
       <c r="K44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>6.75</v>
       </c>
       <c r="M44">
@@ -4082,196 +4095,196 @@
         <v>30</v>
       </c>
       <c r="O44">
-        <f t="shared" ref="O44:Q44" si="32">$G$6*C12</f>
+        <f t="shared" ref="O44:Q44" si="36">$G$6*C12</f>
         <v>15</v>
       </c>
       <c r="P44">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>45</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45">
-        <f>$C$6*B13</f>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="C45">
-        <f>$C$6*C13</f>
+        <f t="shared" si="34"/>
         <v>12</v>
       </c>
       <c r="D45">
-        <f>$C$6*D13</f>
+        <f t="shared" si="34"/>
         <v>1.5</v>
       </c>
       <c r="E45">
-        <f>$C$6*E13</f>
+        <f t="shared" si="34"/>
         <v>6.75</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45">
-        <f t="shared" ref="H45:H47" si="33">$E$6*B13</f>
+        <f t="shared" ref="H45:H47" si="37">$E$6*B13</f>
         <v>9</v>
       </c>
       <c r="I45">
-        <f t="shared" ref="I45:I47" si="34">$E$6*C13</f>
+        <f t="shared" ref="I45:I47" si="38">$E$6*C13</f>
         <v>36</v>
       </c>
       <c r="J45">
-        <f t="shared" ref="J45:J47" si="35">$E$6*D13</f>
+        <f t="shared" ref="J45:J47" si="39">$E$6*D13</f>
         <v>4.5</v>
       </c>
       <c r="K45">
-        <f t="shared" ref="K45:K47" si="36">$E$6*E13</f>
+        <f t="shared" ref="K45:K47" si="40">$E$6*E13</f>
         <v>20.25</v>
       </c>
       <c r="M45">
         <v>2</v>
       </c>
       <c r="N45">
-        <f t="shared" ref="N45:N47" si="37">$G$6*B13</f>
+        <f t="shared" ref="N45:N47" si="41">$G$6*B13</f>
         <v>12</v>
       </c>
       <c r="O45">
-        <f t="shared" ref="O45:O47" si="38">$G$6*C13</f>
+        <f t="shared" ref="O45:O47" si="42">$G$6*C13</f>
         <v>48</v>
       </c>
       <c r="P45">
-        <f t="shared" ref="P45:P47" si="39">$G$6*D13</f>
+        <f t="shared" ref="P45:P47" si="43">$G$6*D13</f>
         <v>6</v>
       </c>
       <c r="Q45">
-        <f t="shared" ref="Q45:Q47" si="40">$G$6*E13</f>
+        <f t="shared" ref="Q45:Q47" si="44">$G$6*E13</f>
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
       <c r="B46">
-        <f>$C$6*B14</f>
+        <f t="shared" si="34"/>
         <v>6.1499999999999995</v>
       </c>
       <c r="C46">
-        <f>$C$6*C14</f>
+        <f t="shared" si="34"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="D46">
-        <f>$C$6*D14</f>
+        <f t="shared" si="34"/>
         <v>6.75</v>
       </c>
       <c r="E46">
-        <f>$C$6*E14</f>
+        <f t="shared" si="34"/>
         <v>12.6</v>
       </c>
       <c r="G46">
         <v>3</v>
       </c>
       <c r="H46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>18.45</v>
       </c>
       <c r="I46">
+        <f t="shared" si="38"/>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="39"/>
+        <v>20.25</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="40"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="41"/>
+        <v>24.599999999999998</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="42"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="43"/>
+        <v>27</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="44"/>
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47">
         <f t="shared" si="34"/>
-        <v>5.3999999999999995</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="35"/>
-        <v>20.25</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="36"/>
-        <v>37.799999999999997</v>
-      </c>
-      <c r="M46">
-        <v>3</v>
-      </c>
-      <c r="N46">
+        <v>4.6499999999999995</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="34"/>
+        <v>6.45</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="34"/>
+        <v>9.6</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="34"/>
+        <v>5.25</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="37"/>
-        <v>24.599999999999998</v>
-      </c>
-      <c r="O46">
+        <v>13.95</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="38"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="P46">
+        <v>19.349999999999998</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="39"/>
-        <v>27</v>
-      </c>
-      <c r="Q46">
+        <v>28.799999999999997</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="40"/>
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A47">
-        <v>4</v>
-      </c>
-      <c r="B47">
-        <f>$C$6*B15</f>
-        <v>4.6499999999999995</v>
-      </c>
-      <c r="C47">
-        <f>$C$6*C15</f>
-        <v>6.45</v>
-      </c>
-      <c r="D47">
-        <f>$C$6*D15</f>
-        <v>9.6</v>
-      </c>
-      <c r="E47">
-        <f>$C$6*E15</f>
-        <v>5.25</v>
-      </c>
-      <c r="G47">
-        <v>4</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="33"/>
-        <v>13.95</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="34"/>
-        <v>19.349999999999998</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="35"/>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="36"/>
         <v>15.75</v>
       </c>
       <c r="M47">
         <v>4</v>
       </c>
       <c r="N47">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>18.599999999999998</v>
       </c>
       <c r="O47">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>25.8</v>
       </c>
       <c r="P47">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>38.4</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -4282,7 +4295,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -4329,24 +4342,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
       <c r="B51">
-        <f>$D$6*B12</f>
+        <f t="shared" ref="B51:E54" si="45">$D$6*B12</f>
         <v>75</v>
       </c>
       <c r="C51">
-        <f>$D$6*C12</f>
+        <f t="shared" si="45"/>
         <v>37.5</v>
       </c>
       <c r="D51">
-        <f>$D$6*D12</f>
+        <f t="shared" si="45"/>
         <v>112.5</v>
       </c>
       <c r="E51">
-        <f>$D$6*E12</f>
+        <f t="shared" si="45"/>
         <v>22.5</v>
       </c>
       <c r="G51">
@@ -4357,15 +4370,15 @@
         <v>37.5</v>
       </c>
       <c r="I51">
-        <f t="shared" ref="I51:K51" si="41">$F$6*C12</f>
+        <f t="shared" ref="I51:K51" si="46">$F$6*C12</f>
         <v>18.75</v>
       </c>
       <c r="J51">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>56.25</v>
       </c>
       <c r="K51">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>11.25</v>
       </c>
       <c r="M51">
@@ -4376,196 +4389,196 @@
         <v>30</v>
       </c>
       <c r="O51">
-        <f t="shared" ref="O51:Q51" si="42">$H$6*C12</f>
+        <f t="shared" ref="O51:Q51" si="47">$H$6*C12</f>
         <v>15</v>
       </c>
       <c r="P51">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>45</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
       <c r="B52">
-        <f>$D$6*B13</f>
+        <f t="shared" si="45"/>
         <v>30</v>
       </c>
       <c r="C52">
-        <f>$D$6*C13</f>
+        <f t="shared" si="45"/>
         <v>120</v>
       </c>
       <c r="D52">
-        <f>$D$6*D13</f>
+        <f t="shared" si="45"/>
         <v>15</v>
       </c>
       <c r="E52">
-        <f>$D$6*E13</f>
+        <f t="shared" si="45"/>
         <v>67.5</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52">
-        <f t="shared" ref="H52:H54" si="43">$F$6*B13</f>
+        <f t="shared" ref="H52:H54" si="48">$F$6*B13</f>
         <v>15</v>
       </c>
       <c r="I52">
-        <f t="shared" ref="I52:I54" si="44">$F$6*C13</f>
+        <f t="shared" ref="I52:I54" si="49">$F$6*C13</f>
         <v>60</v>
       </c>
       <c r="J52">
-        <f t="shared" ref="J52:J54" si="45">$F$6*D13</f>
+        <f t="shared" ref="J52:J54" si="50">$F$6*D13</f>
         <v>7.5</v>
       </c>
       <c r="K52">
-        <f t="shared" ref="K52:K54" si="46">$F$6*E13</f>
+        <f t="shared" ref="K52:K54" si="51">$F$6*E13</f>
         <v>33.75</v>
       </c>
       <c r="M52">
         <v>2</v>
       </c>
       <c r="N52">
-        <f t="shared" ref="N52:N54" si="47">$H$6*B13</f>
+        <f t="shared" ref="N52:N54" si="52">$H$6*B13</f>
         <v>12</v>
       </c>
       <c r="O52">
-        <f t="shared" ref="O52:O54" si="48">$H$6*C13</f>
+        <f t="shared" ref="O52:O54" si="53">$H$6*C13</f>
         <v>48</v>
       </c>
       <c r="P52">
-        <f t="shared" ref="P52:P54" si="49">$H$6*D13</f>
+        <f t="shared" ref="P52:P54" si="54">$H$6*D13</f>
         <v>6</v>
       </c>
       <c r="Q52">
-        <f t="shared" ref="Q52:Q54" si="50">$H$6*E13</f>
+        <f t="shared" ref="Q52:Q54" si="55">$H$6*E13</f>
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
       <c r="B53">
-        <f>$D$6*B14</f>
+        <f t="shared" si="45"/>
         <v>61.5</v>
       </c>
       <c r="C53">
-        <f>$D$6*C14</f>
+        <f t="shared" si="45"/>
         <v>18</v>
       </c>
       <c r="D53">
-        <f>$D$6*D14</f>
+        <f t="shared" si="45"/>
         <v>67.5</v>
       </c>
       <c r="E53">
-        <f>$D$6*E14</f>
+        <f t="shared" si="45"/>
         <v>126</v>
       </c>
       <c r="G53">
         <v>3</v>
       </c>
       <c r="H53">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>30.75</v>
       </c>
       <c r="I53">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>9</v>
       </c>
       <c r="J53">
+        <f t="shared" si="50"/>
+        <v>33.75</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="51"/>
+        <v>63</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="52"/>
+        <v>24.599999999999998</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="53"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="55"/>
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
         <f t="shared" si="45"/>
-        <v>33.75</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="46"/>
-        <v>63</v>
-      </c>
-      <c r="M53">
-        <v>3</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="47"/>
-        <v>24.599999999999998</v>
-      </c>
-      <c r="O53">
+        <v>46.5</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="45"/>
+        <v>64.5</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="45"/>
+        <v>96</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="45"/>
+        <v>52.5</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
         <f t="shared" si="48"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="P53">
+        <v>23.25</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="49"/>
-        <v>27</v>
-      </c>
-      <c r="Q53">
+        <v>32.25</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="50"/>
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A54">
-        <v>4</v>
-      </c>
-      <c r="B54">
-        <f>$D$6*B15</f>
-        <v>46.5</v>
-      </c>
-      <c r="C54">
-        <f>$D$6*C15</f>
-        <v>64.5</v>
-      </c>
-      <c r="D54">
-        <f>$D$6*D15</f>
-        <v>96</v>
-      </c>
-      <c r="E54">
-        <f>$D$6*E15</f>
-        <v>52.5</v>
-      </c>
-      <c r="G54">
-        <v>4</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="43"/>
-        <v>23.25</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="44"/>
-        <v>32.25</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="45"/>
         <v>48</v>
       </c>
       <c r="K54">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>26.25</v>
       </c>
       <c r="M54">
         <v>4</v>
       </c>
       <c r="N54">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>18.599999999999998</v>
       </c>
       <c r="O54">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>25.8</v>
       </c>
       <c r="P54">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>38.4</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -4576,7 +4589,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -4623,7 +4636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -4632,15 +4645,15 @@
         <v>82.5</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:E58" si="51">C51+C44</f>
+        <f t="shared" ref="C58:E58" si="56">C51+C44</f>
         <v>41.25</v>
       </c>
       <c r="D58">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>123.75</v>
       </c>
       <c r="E58">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>24.75</v>
       </c>
       <c r="G58">
@@ -4651,15 +4664,15 @@
         <v>60</v>
       </c>
       <c r="I58">
-        <f t="shared" ref="I58:K58" si="52">I51+I44</f>
+        <f t="shared" ref="I58:K58" si="57">I51+I44</f>
         <v>30</v>
       </c>
       <c r="J58">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>90</v>
       </c>
       <c r="K58">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>18</v>
       </c>
       <c r="M58">
@@ -4670,196 +4683,196 @@
         <v>60</v>
       </c>
       <c r="O58">
-        <f t="shared" ref="O58:Q58" si="53">O51+O44</f>
+        <f t="shared" ref="O58:Q58" si="58">O51+O44</f>
         <v>30</v>
       </c>
       <c r="P58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>90</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
       <c r="B59">
-        <f t="shared" ref="B59:E59" si="54">B52+B45</f>
+        <f t="shared" ref="B59:E59" si="59">B52+B45</f>
         <v>33</v>
       </c>
       <c r="C59">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>132</v>
       </c>
       <c r="D59">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>16.5</v>
       </c>
       <c r="E59">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>74.25</v>
       </c>
       <c r="G59">
         <v>2</v>
       </c>
       <c r="H59">
-        <f t="shared" ref="H59:K59" si="55">H52+H45</f>
+        <f t="shared" ref="H59:K59" si="60">H52+H45</f>
         <v>24</v>
       </c>
       <c r="I59">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>96</v>
       </c>
       <c r="J59">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>12</v>
       </c>
       <c r="K59">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>54</v>
       </c>
       <c r="M59">
         <v>2</v>
       </c>
       <c r="N59">
-        <f t="shared" ref="N59:Q59" si="56">N52+N45</f>
+        <f t="shared" ref="N59:Q59" si="61">N52+N45</f>
         <v>24</v>
       </c>
       <c r="O59">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>96</v>
       </c>
       <c r="P59">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>12</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60">
-        <f t="shared" ref="B60:E60" si="57">B53+B46</f>
+        <f t="shared" ref="B60:E60" si="62">B53+B46</f>
         <v>67.650000000000006</v>
       </c>
       <c r="C60">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>19.8</v>
       </c>
       <c r="D60">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>74.25</v>
       </c>
       <c r="E60">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>138.6</v>
       </c>
       <c r="G60">
         <v>3</v>
       </c>
       <c r="H60">
-        <f t="shared" ref="H60:K60" si="58">H53+H46</f>
+        <f t="shared" ref="H60:K60" si="63">H53+H46</f>
         <v>49.2</v>
       </c>
       <c r="I60">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>14.399999999999999</v>
       </c>
       <c r="J60">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>54</v>
       </c>
       <c r="K60">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>100.8</v>
       </c>
       <c r="M60">
         <v>3</v>
       </c>
       <c r="N60">
-        <f t="shared" ref="N60:Q60" si="59">N53+N46</f>
+        <f t="shared" ref="N60:Q60" si="64">N53+N46</f>
         <v>49.199999999999996</v>
       </c>
       <c r="O60">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>14.399999999999999</v>
       </c>
       <c r="P60">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>54</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>100.8</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61:E61" si="60">B54+B47</f>
+        <f t="shared" ref="B61:E61" si="65">B54+B47</f>
         <v>51.15</v>
       </c>
       <c r="C61">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>70.95</v>
       </c>
       <c r="D61">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>105.6</v>
       </c>
       <c r="E61">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>57.75</v>
       </c>
       <c r="G61">
         <v>4</v>
       </c>
       <c r="H61">
-        <f t="shared" ref="H61:K61" si="61">H54+H47</f>
+        <f t="shared" ref="H61:K61" si="66">H54+H47</f>
         <v>37.200000000000003</v>
       </c>
       <c r="I61">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>51.599999999999994</v>
       </c>
       <c r="J61">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>76.8</v>
       </c>
       <c r="K61">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>42</v>
       </c>
       <c r="M61">
         <v>4</v>
       </c>
       <c r="N61">
-        <f t="shared" ref="N61:Q61" si="62">N54+N47</f>
+        <f t="shared" ref="N61:Q61" si="67">N54+N47</f>
         <v>37.199999999999996</v>
       </c>
       <c r="O61">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>51.6</v>
       </c>
       <c r="P61">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>76.8</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E62">
         <f>SUM(B58:E61)</f>
         <v>1113.75</v>
@@ -4873,7 +4886,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -4884,7 +4897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -4931,7 +4944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -4940,15 +4953,15 @@
         <v>42.5</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:E66" si="63">$C$7*C12</f>
+        <f t="shared" ref="C66:E66" si="68">$C$7*C12</f>
         <v>21.25</v>
       </c>
       <c r="D66">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>63.750000000000007</v>
       </c>
       <c r="E66">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>12.750000000000002</v>
       </c>
       <c r="G66">
@@ -4959,15 +4972,15 @@
         <v>82.5</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66:K66" si="64">$E$7*C12</f>
+        <f t="shared" ref="I66:K66" si="69">$E$7*C12</f>
         <v>41.25</v>
       </c>
       <c r="J66">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>123.75</v>
       </c>
       <c r="K66">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>24.75</v>
       </c>
       <c r="M66">
@@ -4978,196 +4991,196 @@
         <v>85</v>
       </c>
       <c r="O66">
-        <f t="shared" ref="O66:Q66" si="65">$G$7*C12</f>
+        <f t="shared" ref="O66:Q66" si="70">$G$7*C12</f>
         <v>42.5</v>
       </c>
       <c r="P66">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>127.50000000000001</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>25.500000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:E67" si="66">$C$7*B13</f>
+        <f t="shared" ref="B67:E67" si="71">$C$7*B13</f>
         <v>17</v>
       </c>
       <c r="C67">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>68</v>
       </c>
       <c r="D67">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>8.5</v>
       </c>
       <c r="E67">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>38.25</v>
       </c>
       <c r="G67">
         <v>2</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H69" si="67">$E$7*B13</f>
+        <f t="shared" ref="H67:H69" si="72">$E$7*B13</f>
         <v>33</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I69" si="68">$E$7*C13</f>
+        <f t="shared" ref="I67:I69" si="73">$E$7*C13</f>
         <v>132</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J69" si="69">$E$7*D13</f>
+        <f t="shared" ref="J67:J69" si="74">$E$7*D13</f>
         <v>16.5</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K69" si="70">$E$7*E13</f>
+        <f t="shared" ref="K67:K69" si="75">$E$7*E13</f>
         <v>74.25</v>
       </c>
       <c r="M67">
         <v>2</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N69" si="71">$G$7*B13</f>
+        <f t="shared" ref="N67:N69" si="76">$G$7*B13</f>
         <v>34</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O69" si="72">$G$7*C13</f>
+        <f t="shared" ref="O67:O69" si="77">$G$7*C13</f>
         <v>136</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P69" si="73">$G$7*D13</f>
+        <f t="shared" ref="P67:P69" si="78">$G$7*D13</f>
         <v>17</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q69" si="74">$G$7*E13</f>
+        <f t="shared" ref="Q67:Q69" si="79">$G$7*E13</f>
         <v>76.5</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:E68" si="75">$C$7*B14</f>
+        <f t="shared" ref="B68:E68" si="80">$C$7*B14</f>
         <v>34.85</v>
       </c>
       <c r="C68">
+        <f t="shared" si="80"/>
+        <v>10.200000000000001</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="80"/>
+        <v>38.25</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="80"/>
+        <v>71.400000000000006</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="72"/>
+        <v>67.650000000000006</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="73"/>
+        <v>19.8</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="74"/>
+        <v>74.25</v>
+      </c>
+      <c r="K68">
         <f t="shared" si="75"/>
-        <v>10.200000000000001</v>
-      </c>
-      <c r="D68">
+        <v>138.6</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="76"/>
+        <v>69.7</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="77"/>
+        <v>20.400000000000002</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="78"/>
+        <v>76.5</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="79"/>
+        <v>142.80000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ref="B69:E69" si="81">$C$7*B15</f>
+        <v>26.35</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="81"/>
+        <v>36.550000000000004</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="81"/>
+        <v>54.400000000000006</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="81"/>
+        <v>29.750000000000004</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="72"/>
+        <v>51.150000000000006</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="73"/>
+        <v>70.95</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="74"/>
+        <v>105.60000000000001</v>
+      </c>
+      <c r="K69">
         <f t="shared" si="75"/>
-        <v>38.25</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="75"/>
-        <v>71.400000000000006</v>
-      </c>
-      <c r="G68">
-        <v>3</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="67"/>
-        <v>67.650000000000006</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="68"/>
-        <v>19.8</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="69"/>
-        <v>74.25</v>
-      </c>
-      <c r="K68">
-        <f t="shared" si="70"/>
-        <v>138.6</v>
-      </c>
-      <c r="M68">
-        <v>3</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="71"/>
-        <v>69.7</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="72"/>
-        <v>20.400000000000002</v>
-      </c>
-      <c r="P68">
-        <f t="shared" si="73"/>
-        <v>76.5</v>
-      </c>
-      <c r="Q68">
-        <f t="shared" si="74"/>
-        <v>142.80000000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A69">
-        <v>4</v>
-      </c>
-      <c r="B69">
-        <f t="shared" ref="B69:E69" si="76">$C$7*B15</f>
-        <v>26.35</v>
-      </c>
-      <c r="C69">
+        <v>57.75</v>
+      </c>
+      <c r="M69">
+        <v>4</v>
+      </c>
+      <c r="N69">
         <f t="shared" si="76"/>
-        <v>36.550000000000004</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="76"/>
-        <v>54.400000000000006</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="76"/>
-        <v>29.750000000000004</v>
-      </c>
-      <c r="G69">
-        <v>4</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="67"/>
-        <v>51.150000000000006</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="68"/>
-        <v>70.95</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="69"/>
-        <v>105.60000000000001</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="70"/>
-        <v>57.75</v>
-      </c>
-      <c r="M69">
-        <v>4</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="71"/>
         <v>52.7</v>
       </c>
       <c r="O69">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>73.100000000000009</v>
       </c>
       <c r="P69">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>108.80000000000001</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>59.500000000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -5178,7 +5191,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -5225,24 +5238,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="5">
         <f>$D$7*B12</f>
         <v>50</v>
       </c>
-      <c r="C73">
-        <f t="shared" ref="C73:E73" si="77">$D$7*C12</f>
+      <c r="C73" s="5">
+        <f t="shared" ref="C73:E73" si="82">$D$7*C12</f>
         <v>25</v>
       </c>
-      <c r="D73">
-        <f t="shared" si="77"/>
+      <c r="D73" s="5">
+        <f t="shared" si="82"/>
         <v>75</v>
       </c>
-      <c r="E73">
-        <f t="shared" si="77"/>
+      <c r="E73" s="5">
+        <f t="shared" si="82"/>
         <v>15</v>
       </c>
       <c r="G73">
@@ -5253,15 +5266,15 @@
         <v>82.5</v>
       </c>
       <c r="I73">
-        <f t="shared" ref="I73:K73" si="78">$F$7*C12</f>
+        <f t="shared" ref="I73:K73" si="83">$F$7*C12</f>
         <v>41.25</v>
       </c>
       <c r="J73">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>123.75</v>
       </c>
       <c r="K73">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>24.75</v>
       </c>
       <c r="M73">
@@ -5272,196 +5285,196 @@
         <v>85</v>
       </c>
       <c r="O73">
-        <f t="shared" ref="O73:Q73" si="79">$H$7*C12</f>
+        <f t="shared" ref="O73:Q73" si="84">$H$7*C12</f>
         <v>42.5</v>
       </c>
       <c r="P73">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>127.50000000000001</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>25.500000000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
-      <c r="B74">
-        <f t="shared" ref="B74:E74" si="80">$D$7*B13</f>
+      <c r="B74" s="5">
+        <f t="shared" ref="B74:E74" si="85">$D$7*B13</f>
         <v>20</v>
       </c>
-      <c r="C74">
-        <f t="shared" si="80"/>
+      <c r="C74" s="5">
+        <f t="shared" si="85"/>
         <v>80</v>
       </c>
-      <c r="D74">
-        <f t="shared" si="80"/>
+      <c r="D74" s="5">
+        <f t="shared" si="85"/>
         <v>10</v>
       </c>
-      <c r="E74">
-        <f t="shared" si="80"/>
+      <c r="E74" s="5">
+        <f t="shared" si="85"/>
         <v>45</v>
       </c>
       <c r="G74">
         <v>2</v>
       </c>
       <c r="H74">
-        <f t="shared" ref="H74:H76" si="81">$F$7*B13</f>
+        <f t="shared" ref="H74:H76" si="86">$F$7*B13</f>
         <v>33</v>
       </c>
       <c r="I74">
-        <f t="shared" ref="I74:I76" si="82">$F$7*C13</f>
+        <f t="shared" ref="I74:I76" si="87">$F$7*C13</f>
         <v>132</v>
       </c>
       <c r="J74">
-        <f t="shared" ref="J74:J76" si="83">$F$7*D13</f>
+        <f t="shared" ref="J74:J76" si="88">$F$7*D13</f>
         <v>16.5</v>
       </c>
       <c r="K74">
-        <f t="shared" ref="K74:K76" si="84">$F$7*E13</f>
+        <f t="shared" ref="K74:K76" si="89">$F$7*E13</f>
         <v>74.25</v>
       </c>
       <c r="M74">
         <v>2</v>
       </c>
       <c r="N74">
-        <f t="shared" ref="N74:N76" si="85">$H$7*B13</f>
+        <f t="shared" ref="N74:N76" si="90">$H$7*B13</f>
         <v>34</v>
       </c>
       <c r="O74">
-        <f t="shared" ref="O74:O76" si="86">$H$7*C13</f>
+        <f t="shared" ref="O74:O76" si="91">$H$7*C13</f>
         <v>136</v>
       </c>
       <c r="P74">
-        <f t="shared" ref="P74:P76" si="87">$H$7*D13</f>
+        <f t="shared" ref="P74:P76" si="92">$H$7*D13</f>
         <v>17</v>
       </c>
       <c r="Q74">
-        <f t="shared" ref="Q74:Q76" si="88">$H$7*E13</f>
+        <f t="shared" ref="Q74:Q76" si="93">$H$7*E13</f>
         <v>76.5</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
-      <c r="B75">
-        <f t="shared" ref="B75:E75" si="89">$D$7*B14</f>
+      <c r="B75" s="5">
+        <f t="shared" ref="B75:E75" si="94">$D$7*B14</f>
         <v>41</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="5">
+        <f t="shared" si="94"/>
+        <v>12</v>
+      </c>
+      <c r="D75" s="5">
+        <f t="shared" si="94"/>
+        <v>45</v>
+      </c>
+      <c r="E75" s="5">
+        <f t="shared" si="94"/>
+        <v>84</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="86"/>
+        <v>67.650000000000006</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="87"/>
+        <v>19.8</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="88"/>
+        <v>74.25</v>
+      </c>
+      <c r="K75">
         <f t="shared" si="89"/>
-        <v>12</v>
-      </c>
-      <c r="D75">
+        <v>138.6</v>
+      </c>
+      <c r="M75">
+        <v>3</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="90"/>
+        <v>69.7</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="91"/>
+        <v>20.400000000000002</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="92"/>
+        <v>76.5</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="93"/>
+        <v>142.80000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76" s="5">
+        <f t="shared" ref="B76:E76" si="95">$D$7*B15</f>
+        <v>31</v>
+      </c>
+      <c r="C76" s="5">
+        <f t="shared" si="95"/>
+        <v>43</v>
+      </c>
+      <c r="D76" s="5">
+        <f t="shared" si="95"/>
+        <v>64</v>
+      </c>
+      <c r="E76" s="5">
+        <f t="shared" si="95"/>
+        <v>35</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="86"/>
+        <v>51.150000000000006</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="87"/>
+        <v>70.95</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="88"/>
+        <v>105.60000000000001</v>
+      </c>
+      <c r="K76">
         <f t="shared" si="89"/>
-        <v>45</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="89"/>
-        <v>84</v>
-      </c>
-      <c r="G75">
-        <v>3</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="81"/>
-        <v>67.650000000000006</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="82"/>
-        <v>19.8</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="83"/>
-        <v>74.25</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="84"/>
-        <v>138.6</v>
-      </c>
-      <c r="M75">
-        <v>3</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="85"/>
-        <v>69.7</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="86"/>
-        <v>20.400000000000002</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="87"/>
-        <v>76.5</v>
-      </c>
-      <c r="Q75">
-        <f t="shared" si="88"/>
-        <v>142.80000000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A76">
-        <v>4</v>
-      </c>
-      <c r="B76">
-        <f t="shared" ref="B76:E76" si="90">$D$7*B15</f>
-        <v>31</v>
-      </c>
-      <c r="C76">
+        <v>57.75</v>
+      </c>
+      <c r="M76">
+        <v>4</v>
+      </c>
+      <c r="N76">
         <f t="shared" si="90"/>
-        <v>43</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="90"/>
-        <v>64</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="90"/>
-        <v>35</v>
-      </c>
-      <c r="G76">
-        <v>4</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="81"/>
-        <v>51.150000000000006</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="82"/>
-        <v>70.95</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="83"/>
-        <v>105.60000000000001</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="84"/>
-        <v>57.75</v>
-      </c>
-      <c r="M76">
-        <v>4</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="85"/>
         <v>52.7</v>
       </c>
       <c r="O76">
-        <f t="shared" si="86"/>
+        <f t="shared" si="91"/>
         <v>73.100000000000009</v>
       </c>
       <c r="P76">
-        <f t="shared" si="87"/>
+        <f t="shared" si="92"/>
         <v>108.80000000000001</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>59.500000000000007</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>52</v>
       </c>
@@ -5472,7 +5485,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -5519,7 +5532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -5528,15 +5541,15 @@
         <v>92.5</v>
       </c>
       <c r="C80">
-        <f t="shared" ref="C80:E80" si="91">C66+C73</f>
+        <f t="shared" ref="C80:E80" si="96">C66+C73</f>
         <v>46.25</v>
       </c>
       <c r="D80">
-        <f t="shared" si="91"/>
+        <f t="shared" si="96"/>
         <v>138.75</v>
       </c>
       <c r="E80">
-        <f t="shared" si="91"/>
+        <f t="shared" si="96"/>
         <v>27.75</v>
       </c>
       <c r="G80">
@@ -5547,15 +5560,15 @@
         <v>165</v>
       </c>
       <c r="I80">
-        <f t="shared" ref="I80:K80" si="92">I66+I73</f>
+        <f t="shared" ref="I80:K80" si="97">I66+I73</f>
         <v>82.5</v>
       </c>
       <c r="J80">
-        <f t="shared" si="92"/>
+        <f t="shared" si="97"/>
         <v>247.5</v>
       </c>
       <c r="K80">
-        <f t="shared" si="92"/>
+        <f t="shared" si="97"/>
         <v>49.5</v>
       </c>
       <c r="M80">
@@ -5566,196 +5579,196 @@
         <v>170</v>
       </c>
       <c r="O80">
-        <f t="shared" ref="O80:Q80" si="93">O66+O73</f>
+        <f t="shared" ref="O80:Q80" si="98">O66+O73</f>
         <v>85</v>
       </c>
       <c r="P80">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>255.00000000000003</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>51.000000000000007</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
       <c r="B81">
-        <f t="shared" ref="B81:E81" si="94">B67+B74</f>
+        <f t="shared" ref="B81:E81" si="99">B67+B74</f>
         <v>37</v>
       </c>
       <c r="C81">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>148</v>
       </c>
       <c r="D81">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>18.5</v>
       </c>
       <c r="E81">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>83.25</v>
       </c>
       <c r="G81">
         <v>2</v>
       </c>
       <c r="H81">
-        <f t="shared" ref="H81:K81" si="95">H67+H74</f>
+        <f t="shared" ref="H81:K81" si="100">H67+H74</f>
         <v>66</v>
       </c>
       <c r="I81">
-        <f t="shared" si="95"/>
+        <f t="shared" si="100"/>
         <v>264</v>
       </c>
       <c r="J81">
-        <f t="shared" si="95"/>
+        <f t="shared" si="100"/>
         <v>33</v>
       </c>
       <c r="K81">
-        <f t="shared" si="95"/>
+        <f t="shared" si="100"/>
         <v>148.5</v>
       </c>
       <c r="M81">
         <v>2</v>
       </c>
       <c r="N81">
-        <f t="shared" ref="N81:Q81" si="96">N67+N74</f>
+        <f t="shared" ref="N81:Q81" si="101">N67+N74</f>
         <v>68</v>
       </c>
       <c r="O81">
-        <f t="shared" si="96"/>
+        <f t="shared" si="101"/>
         <v>272</v>
       </c>
       <c r="P81">
-        <f t="shared" si="96"/>
+        <f t="shared" si="101"/>
         <v>34</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="96"/>
+        <f t="shared" si="101"/>
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
       <c r="B82">
-        <f t="shared" ref="B82:E82" si="97">B68+B75</f>
+        <f t="shared" ref="B82:E82" si="102">B68+B75</f>
         <v>75.849999999999994</v>
       </c>
       <c r="C82">
-        <f t="shared" si="97"/>
+        <f t="shared" si="102"/>
         <v>22.200000000000003</v>
       </c>
       <c r="D82">
-        <f t="shared" si="97"/>
+        <f t="shared" si="102"/>
         <v>83.25</v>
       </c>
       <c r="E82">
-        <f t="shared" si="97"/>
+        <f t="shared" si="102"/>
         <v>155.4</v>
       </c>
       <c r="G82">
         <v>3</v>
       </c>
       <c r="H82">
-        <f t="shared" ref="H82:K82" si="98">H68+H75</f>
+        <f t="shared" ref="H82:K82" si="103">H68+H75</f>
         <v>135.30000000000001</v>
       </c>
       <c r="I82">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>39.6</v>
       </c>
       <c r="J82">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>148.5</v>
       </c>
       <c r="K82">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>277.2</v>
       </c>
       <c r="M82">
         <v>3</v>
       </c>
       <c r="N82">
-        <f t="shared" ref="N82:Q82" si="99">N68+N75</f>
+        <f t="shared" ref="N82:Q82" si="104">N68+N75</f>
         <v>139.4</v>
       </c>
       <c r="O82">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>40.800000000000004</v>
       </c>
       <c r="P82">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>153</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>285.60000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
       <c r="B83">
-        <f t="shared" ref="B83:E83" si="100">B69+B76</f>
+        <f t="shared" ref="B83:E83" si="105">B69+B76</f>
         <v>57.35</v>
       </c>
       <c r="C83">
-        <f t="shared" si="100"/>
+        <f t="shared" si="105"/>
         <v>79.550000000000011</v>
       </c>
       <c r="D83">
-        <f t="shared" si="100"/>
+        <f t="shared" si="105"/>
         <v>118.4</v>
       </c>
       <c r="E83">
-        <f t="shared" si="100"/>
+        <f t="shared" si="105"/>
         <v>64.75</v>
       </c>
       <c r="G83">
         <v>4</v>
       </c>
       <c r="H83">
-        <f t="shared" ref="H83:K83" si="101">H69+H76</f>
+        <f t="shared" ref="H83:K83" si="106">H69+H76</f>
         <v>102.30000000000001</v>
       </c>
       <c r="I83">
-        <f t="shared" si="101"/>
+        <f t="shared" si="106"/>
         <v>141.9</v>
       </c>
       <c r="J83">
-        <f t="shared" si="101"/>
+        <f t="shared" si="106"/>
         <v>211.20000000000002</v>
       </c>
       <c r="K83">
-        <f t="shared" si="101"/>
+        <f t="shared" si="106"/>
         <v>115.5</v>
       </c>
       <c r="M83">
         <v>4</v>
       </c>
       <c r="N83">
-        <f t="shared" ref="N83:Q83" si="102">N69+N76</f>
+        <f t="shared" ref="N83:Q83" si="107">N69+N76</f>
         <v>105.4</v>
       </c>
       <c r="O83">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>146.20000000000002</v>
       </c>
       <c r="P83">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>217.60000000000002</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>119.00000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E84">
         <f>SUM(B80:E83)</f>
         <v>1248.7500000000002</v>
@@ -5781,49 +5794,49 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="1"/>
       <c r="C3" t="s">
         <v>38</v>
       </c>
@@ -5849,12 +5862,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -5883,7 +5896,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -5912,7 +5925,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -5941,17 +5954,17 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -5974,7 +5987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -6000,7 +6013,7 @@
         <v>1.0492773385609955</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6026,7 +6039,7 @@
         <v>0.92049939689720484</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -6052,7 +6065,7 @@
         <v>1.0150991878864666</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -6078,7 +6091,7 @@
         <v>1.0233535393222091</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -6098,7 +6111,7 @@
         <v>3371.8194558417358</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -6115,7 +6128,7 @@
         <v>862.8</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.9935528043016657</v>
       </c>
@@ -6129,7 +6142,7 @@
         <v>0.98435945914674405</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -6140,7 +6153,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -6187,7 +6200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6246,7 +6259,7 @@
         <v>2.3742991622594198</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -6305,7 +6318,7 @@
         <v>9.669089985966826</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -6364,7 +6377,7 @@
         <v>18.264017569181277</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -6423,7 +6436,7 @@
         <v>6.9965932825924781</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -6434,7 +6447,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -6481,24 +6494,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29">
-        <f>$D$5*B22</f>
+        <f t="shared" ref="B29:E32" si="6">$D$5*B22</f>
         <v>0</v>
       </c>
       <c r="C29">
-        <f>$D$5*C22</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D29">
-        <f>$D$5*D22</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f>$D$5*E22</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G29">
@@ -6509,15 +6522,15 @@
         <v>4.9050238341725763</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I29:K32" si="6">$F$5*C12</f>
+        <f t="shared" ref="I29:K32" si="7">$F$5*C12</f>
         <v>2.3064165467812994</v>
       </c>
       <c r="J29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.6460422669126675</v>
       </c>
       <c r="K29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1871495811297099</v>
       </c>
       <c r="M29">
@@ -6528,196 +6541,196 @@
         <v>9.8100476683451525</v>
       </c>
       <c r="O29">
-        <f t="shared" ref="O29:Q32" si="7">$H$5*C12</f>
+        <f t="shared" ref="O29:Q32" si="8">$H$5*C12</f>
         <v>4.6128330935625987</v>
       </c>
       <c r="P29">
+        <f t="shared" si="8"/>
+        <v>11.292084533825335</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="8"/>
+        <v>2.3742991622594198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30:H32" si="9">$F$5*B13</f>
+        <v>2.6633609103015927</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="7"/>
-        <v>11.292084533825335</v>
-      </c>
-      <c r="Q29">
+        <v>10.018821324820449</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="7"/>
-        <v>2.3742991622594198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <f>$D$5*B23</f>
+        <v>1.0219079308607437</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="7"/>
+        <v>4.834544992983413</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ref="N30:N32" si="10">$H$5*B13</f>
+        <v>5.3267218206031854</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="8"/>
+        <v>20.037642649640897</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="8"/>
+        <v>2.0438158617214874</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="8"/>
+        <v>9.669089985966826</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C30">
-        <f>$D$5*C23</f>
+      <c r="C31">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D30">
-        <f>$D$5*D23</f>
+      <c r="D31">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E30">
-        <f>$D$5*E23</f>
+      <c r="E31">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <f t="shared" ref="H30:H32" si="8">$F$5*B13</f>
-        <v>2.6633609103015927</v>
-      </c>
-      <c r="I30">
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="9"/>
+        <v>5.5249432868021078</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="7"/>
+        <v>1.5207290159020277</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="7"/>
+        <v>4.6533768543921612</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="7"/>
+        <v>9.1320087845906386</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="10"/>
+        <v>11.049886573604216</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="8"/>
+        <v>3.0414580318040554</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="8"/>
+        <v>9.3067537087843224</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="8"/>
+        <v>18.264017569181277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
         <f t="shared" si="6"/>
-        <v>10.018821324820449</v>
-      </c>
-      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <f t="shared" si="6"/>
-        <v>1.0219079308607437</v>
-      </c>
-      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="D32">
         <f t="shared" si="6"/>
-        <v>4.834544992983413</v>
-      </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-      <c r="N30">
-        <f t="shared" ref="N30:N32" si="9">$H$5*B13</f>
-        <v>5.3267218206031854</v>
-      </c>
-      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="9"/>
+        <v>3.840671968723723</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="7"/>
-        <v>20.037642649640897</v>
-      </c>
-      <c r="P30">
+        <v>5.0100331124962212</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="7"/>
-        <v>2.0438158617214874</v>
-      </c>
-      <c r="Q30">
+        <v>6.0846729478344246</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="7"/>
-        <v>9.669089985966826</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31">
-        <f>$D$5*B24</f>
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <f>$D$5*C24</f>
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <f>$D$5*D24</f>
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <f>$D$5*E24</f>
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31">
+        <v>3.4982966412962391</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="10"/>
+        <v>7.6813439374474459</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="8"/>
-        <v>5.5249432868021078</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="6"/>
-        <v>1.5207290159020277</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="6"/>
-        <v>4.6533768543921612</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="6"/>
-        <v>9.1320087845906386</v>
-      </c>
-      <c r="M31">
-        <v>3</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="9"/>
-        <v>11.049886573604216</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="7"/>
-        <v>3.0414580318040554</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="7"/>
-        <v>9.3067537087843224</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="7"/>
-        <v>18.264017569181277</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32">
-        <f>$D$5*B25</f>
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <f>$D$5*C25</f>
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <f>$D$5*D25</f>
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <f>$D$5*E25</f>
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32">
+        <v>10.020066224992442</v>
+      </c>
+      <c r="P32">
         <f t="shared" si="8"/>
-        <v>3.840671968723723</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="6"/>
-        <v>5.0100331124962212</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="6"/>
-        <v>6.0846729478344246</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="6"/>
-        <v>3.4982966412962391</v>
-      </c>
-      <c r="M32">
-        <v>4</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="9"/>
-        <v>7.6813439374474459</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="7"/>
-        <v>10.020066224992442</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="7"/>
         <v>12.169345895668849</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.9965932825924781</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -6728,7 +6741,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -6775,24 +6788,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36">
-        <f>B29+B22</f>
+        <f t="shared" ref="B36:E39" si="11">B29+B22</f>
         <v>73.575357512588639</v>
       </c>
       <c r="C36">
-        <f>C29+C22</f>
+        <f t="shared" si="11"/>
         <v>34.59624820171949</v>
       </c>
       <c r="D36">
-        <f>D29+D22</f>
+        <f t="shared" si="11"/>
         <v>84.690634003690008</v>
       </c>
       <c r="E36">
-        <f>E29+E22</f>
+        <f t="shared" si="11"/>
         <v>17.807243716945649</v>
       </c>
       <c r="G36">
@@ -6803,15 +6816,15 @@
         <v>19.620095336690305</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36:K36" si="10">I22+I29</f>
+        <f t="shared" ref="I36:K36" si="12">I22+I29</f>
         <v>9.2256661871251975</v>
       </c>
       <c r="J36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22.58416906765067</v>
       </c>
       <c r="K36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.7485983245188397</v>
       </c>
       <c r="M36">
@@ -6822,196 +6835,196 @@
         <v>19.620095336690305</v>
       </c>
       <c r="O36">
-        <f t="shared" ref="O36:Q36" si="11">O22+O29</f>
+        <f t="shared" ref="O36:Q36" si="13">O22+O29</f>
         <v>9.2256661871251975</v>
       </c>
       <c r="P36">
+        <f t="shared" si="13"/>
+        <v>22.58416906765067</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="13"/>
+        <v>4.7485983245188397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
         <f t="shared" si="11"/>
-        <v>22.58416906765067</v>
-      </c>
-      <c r="Q36">
+        <v>39.950413654523885</v>
+      </c>
+      <c r="C37">
         <f t="shared" si="11"/>
-        <v>4.7485983245188397</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37">
-        <f>B30+B23</f>
-        <v>39.950413654523885</v>
-      </c>
-      <c r="C37">
-        <f>C30+C23</f>
         <v>150.28231987230672</v>
       </c>
       <c r="D37">
-        <f>D30+D23</f>
+        <f t="shared" si="11"/>
         <v>15.328618962911154</v>
       </c>
       <c r="E37">
-        <f>E30+E23</f>
+        <f t="shared" si="11"/>
         <v>72.518174894751198</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:K39" si="12">H23+H30</f>
+        <f t="shared" ref="H37:K39" si="14">H23+H30</f>
         <v>10.653443641206371</v>
       </c>
       <c r="I37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>40.075285299281795</v>
       </c>
       <c r="J37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.0876317234429749</v>
       </c>
       <c r="K37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19.338179971933652</v>
       </c>
       <c r="M37">
         <v>2</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:Q39" si="13">N23+N30</f>
+        <f t="shared" ref="N37:Q39" si="15">N23+N30</f>
         <v>10.653443641206371</v>
       </c>
       <c r="O37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>40.075285299281795</v>
       </c>
       <c r="P37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.0876317234429749</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19.338179971933652</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
       <c r="B38">
-        <f>B31+B24</f>
+        <f t="shared" si="11"/>
         <v>82.874149302031611</v>
       </c>
       <c r="C38">
-        <f>C31+C24</f>
+        <f t="shared" si="11"/>
         <v>22.810935238530416</v>
       </c>
       <c r="D38">
-        <f>D31+D24</f>
+        <f t="shared" si="11"/>
         <v>69.800652815882415</v>
       </c>
       <c r="E38">
-        <f>E31+E24</f>
+        <f t="shared" si="11"/>
         <v>136.98013176885959</v>
       </c>
       <c r="G38">
         <v>3</v>
       </c>
       <c r="H38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22.099773147208431</v>
       </c>
       <c r="I38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.0829160636081108</v>
       </c>
       <c r="J38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18.613507417568645</v>
       </c>
       <c r="K38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>36.528035138362554</v>
       </c>
       <c r="M38">
         <v>3</v>
       </c>
       <c r="N38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>22.099773147208431</v>
       </c>
       <c r="O38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.0829160636081108</v>
       </c>
       <c r="P38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18.613507417568645</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>36.528035138362554</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
       <c r="B39">
-        <f>B32+B25</f>
+        <f t="shared" si="11"/>
         <v>57.610079530855842</v>
       </c>
       <c r="C39">
-        <f>C32+C25</f>
+        <f t="shared" si="11"/>
         <v>75.150496687443308</v>
       </c>
       <c r="D39">
-        <f>D32+D25</f>
+        <f t="shared" si="11"/>
         <v>91.270094217516359</v>
       </c>
       <c r="E39">
-        <f>E32+E25</f>
+        <f t="shared" si="11"/>
         <v>52.474449619443583</v>
       </c>
       <c r="G39">
         <v>4</v>
       </c>
       <c r="H39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15.362687874894892</v>
       </c>
       <c r="I39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20.040132449984881</v>
       </c>
       <c r="J39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24.338691791337695</v>
       </c>
       <c r="K39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>13.993186565184956</v>
       </c>
       <c r="M39">
         <v>4</v>
       </c>
       <c r="N39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>15.362687874894892</v>
       </c>
       <c r="O39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>20.040132449984885</v>
       </c>
       <c r="P39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>24.338691791337698</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>13.993186565184956</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E40">
         <f>SUM(B36:E39)</f>
         <v>1077.7199999999996</v>
@@ -7025,7 +7038,7 @@
         <v>287.39199999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -7036,7 +7049,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -7083,24 +7096,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44">
-        <f>$C$6*B12</f>
+        <f t="shared" ref="B44:E47" si="16">$C$6*B12</f>
         <v>7.3575357512588635</v>
       </c>
       <c r="C44">
-        <f>$C$6*C12</f>
+        <f t="shared" si="16"/>
         <v>3.4596248201719488</v>
       </c>
       <c r="D44">
-        <f>$C$6*D12</f>
+        <f t="shared" si="16"/>
         <v>8.4690634003690004</v>
       </c>
       <c r="E44">
-        <f>$C$6*E12</f>
+        <f t="shared" si="16"/>
         <v>1.7807243716945649</v>
       </c>
       <c r="G44">
@@ -7111,15 +7124,15 @@
         <v>22.072607253776592</v>
       </c>
       <c r="I44">
-        <f t="shared" ref="I44:K47" si="14">$E$6*C12</f>
+        <f t="shared" ref="I44:K47" si="17">$E$6*C12</f>
         <v>10.378874460515846</v>
       </c>
       <c r="J44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>25.407190201107003</v>
       </c>
       <c r="K44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>5.3421731150836944</v>
       </c>
       <c r="M44">
@@ -7130,196 +7143,196 @@
         <v>29.430143005035454</v>
       </c>
       <c r="O44">
-        <f t="shared" ref="O44:Q47" si="15">$G$6*C12</f>
+        <f t="shared" ref="O44:Q47" si="18">$G$6*C12</f>
         <v>13.838499280687795</v>
       </c>
       <c r="P44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>33.876253601476002</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>7.1228974867782595</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45">
-        <f>$C$6*B13</f>
+        <f t="shared" si="16"/>
         <v>3.9950413654523889</v>
       </c>
       <c r="C45">
-        <f>$C$6*C13</f>
+        <f t="shared" si="16"/>
         <v>15.028231987230672</v>
       </c>
       <c r="D45">
-        <f>$C$6*D13</f>
+        <f t="shared" si="16"/>
         <v>1.5328618962911154</v>
       </c>
       <c r="E45">
-        <f>$C$6*E13</f>
+        <f t="shared" si="16"/>
         <v>7.2518174894751191</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45">
-        <f t="shared" ref="H45:H47" si="16">$E$6*B13</f>
+        <f t="shared" ref="H45:H47" si="19">$E$6*B13</f>
         <v>11.985124096357167</v>
       </c>
       <c r="I45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>45.08469596169202</v>
       </c>
       <c r="J45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4.5985856888733458</v>
       </c>
       <c r="K45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21.755452468425357</v>
       </c>
       <c r="M45">
         <v>2</v>
       </c>
       <c r="N45">
-        <f t="shared" ref="N45:N47" si="17">$G$6*B13</f>
+        <f t="shared" ref="N45:N47" si="20">$G$6*B13</f>
         <v>15.980165461809555</v>
       </c>
       <c r="O45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>60.112927948922689</v>
       </c>
       <c r="P45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6.1314475851644614</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>29.007269957900476</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
       <c r="B46">
-        <f>$C$6*B14</f>
+        <f t="shared" si="16"/>
         <v>8.2874149302031608</v>
       </c>
       <c r="C46">
-        <f>$C$6*C14</f>
+        <f t="shared" si="16"/>
         <v>2.2810935238530416</v>
       </c>
       <c r="D46">
-        <f>$C$6*D14</f>
+        <f t="shared" si="16"/>
         <v>6.9800652815882414</v>
       </c>
       <c r="E46">
-        <f>$C$6*E14</f>
+        <f t="shared" si="16"/>
         <v>13.698013176885958</v>
       </c>
       <c r="G46">
         <v>3</v>
       </c>
       <c r="H46">
+        <f t="shared" si="19"/>
+        <v>24.862244790609484</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="17"/>
+        <v>6.8432805715591245</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="17"/>
+        <v>20.940195844764723</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="17"/>
+        <v>41.094039530657874</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="20"/>
+        <v>33.149659720812643</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="18"/>
+        <v>9.1243740954121666</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="18"/>
+        <v>27.920261126352965</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="18"/>
+        <v>54.792052707543832</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47">
         <f t="shared" si="16"/>
-        <v>24.862244790609484</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="14"/>
-        <v>6.8432805715591245</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="14"/>
-        <v>20.940195844764723</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="14"/>
-        <v>41.094039530657874</v>
-      </c>
-      <c r="M46">
-        <v>3</v>
-      </c>
-      <c r="N46">
+        <v>5.761007953085584</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="16"/>
+        <v>7.5150496687443304</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="16"/>
+        <v>9.1270094217516355</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="16"/>
+        <v>5.2474449619443586</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="19"/>
+        <v>17.283023859256751</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="17"/>
-        <v>33.149659720812643</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="15"/>
-        <v>9.1243740954121666</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="15"/>
-        <v>27.920261126352965</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="15"/>
-        <v>54.792052707543832</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A47">
-        <v>4</v>
-      </c>
-      <c r="B47">
-        <f>$C$6*B15</f>
-        <v>5.761007953085584</v>
-      </c>
-      <c r="C47">
-        <f>$C$6*C15</f>
-        <v>7.5150496687443304</v>
-      </c>
-      <c r="D47">
-        <f>$C$6*D15</f>
-        <v>9.1270094217516355</v>
-      </c>
-      <c r="E47">
-        <f>$C$6*E15</f>
-        <v>5.2474449619443586</v>
-      </c>
-      <c r="G47">
-        <v>4</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="16"/>
-        <v>17.283023859256751</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="14"/>
         <v>22.545149006232993</v>
       </c>
       <c r="J47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>27.381028265254908</v>
       </c>
       <c r="K47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>15.742334885833074</v>
       </c>
       <c r="M47">
         <v>4</v>
       </c>
       <c r="N47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>23.044031812342336</v>
       </c>
       <c r="O47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>30.060198674977322</v>
       </c>
       <c r="P47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>36.508037687006542</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>20.989779847777434</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -7330,7 +7343,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -7377,24 +7390,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
       <c r="B51">
-        <f>$D$6*B12</f>
+        <f t="shared" ref="B51:E54" si="21">$D$6*B12</f>
         <v>73.575357512588639</v>
       </c>
       <c r="C51">
-        <f>$D$6*C12</f>
+        <f t="shared" si="21"/>
         <v>34.59624820171949</v>
       </c>
       <c r="D51">
-        <f>$D$6*D12</f>
+        <f t="shared" si="21"/>
         <v>84.690634003690008</v>
       </c>
       <c r="E51">
-        <f>$D$6*E12</f>
+        <f t="shared" si="21"/>
         <v>17.807243716945649</v>
       </c>
       <c r="G51">
@@ -7405,15 +7418,15 @@
         <v>36.787678756294319</v>
       </c>
       <c r="I51">
-        <f t="shared" ref="I51:K54" si="18">$F$6*C12</f>
+        <f t="shared" ref="I51:K54" si="22">$F$6*C12</f>
         <v>17.298124100859745</v>
       </c>
       <c r="J51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>42.345317001845004</v>
       </c>
       <c r="K51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8.9036218584728246</v>
       </c>
       <c r="M51">
@@ -7424,196 +7437,196 @@
         <v>29.430143005035454</v>
       </c>
       <c r="O51">
-        <f t="shared" ref="O51:Q54" si="19">$H$6*C12</f>
+        <f t="shared" ref="O51:Q54" si="23">$H$6*C12</f>
         <v>13.838499280687795</v>
       </c>
       <c r="P51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>33.876253601476002</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>7.1228974867782595</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
       <c r="B52">
-        <f>$D$6*B13</f>
+        <f t="shared" si="21"/>
         <v>39.950413654523885</v>
       </c>
       <c r="C52">
-        <f>$D$6*C13</f>
+        <f t="shared" si="21"/>
         <v>150.28231987230672</v>
       </c>
       <c r="D52">
-        <f>$D$6*D13</f>
+        <f t="shared" si="21"/>
         <v>15.328618962911154</v>
       </c>
       <c r="E52">
-        <f>$D$6*E13</f>
+        <f t="shared" si="21"/>
         <v>72.518174894751198</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52">
-        <f t="shared" ref="H52:H54" si="20">$F$6*B13</f>
+        <f t="shared" ref="H52:H54" si="24">$F$6*B13</f>
         <v>19.975206827261943</v>
       </c>
       <c r="I52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>75.141159936153358</v>
       </c>
       <c r="J52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>7.664309481455577</v>
       </c>
       <c r="K52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>36.259087447375599</v>
       </c>
       <c r="M52">
         <v>2</v>
       </c>
       <c r="N52">
-        <f t="shared" ref="N52:N54" si="21">$H$6*B13</f>
+        <f t="shared" ref="N52:N54" si="25">$H$6*B13</f>
         <v>15.980165461809555</v>
       </c>
       <c r="O52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>60.112927948922689</v>
       </c>
       <c r="P52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>6.1314475851644614</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>29.007269957900476</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
       <c r="B53">
-        <f>$D$6*B14</f>
+        <f t="shared" si="21"/>
         <v>82.874149302031611</v>
       </c>
       <c r="C53">
-        <f>$D$6*C14</f>
+        <f t="shared" si="21"/>
         <v>22.810935238530416</v>
       </c>
       <c r="D53">
-        <f>$D$6*D14</f>
+        <f t="shared" si="21"/>
         <v>69.800652815882415</v>
       </c>
       <c r="E53">
-        <f>$D$6*E14</f>
+        <f t="shared" si="21"/>
         <v>136.98013176885959</v>
       </c>
       <c r="G53">
         <v>3</v>
       </c>
       <c r="H53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>41.437074651015806</v>
       </c>
       <c r="I53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.405467619265208</v>
       </c>
       <c r="J53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>34.900326407941208</v>
       </c>
       <c r="K53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>68.490065884429796</v>
       </c>
       <c r="M53">
         <v>3</v>
       </c>
       <c r="N53">
+        <f t="shared" si="25"/>
+        <v>33.149659720812643</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="23"/>
+        <v>9.1243740954121666</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="23"/>
+        <v>27.920261126352965</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="23"/>
+        <v>54.792052707543832</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
         <f t="shared" si="21"/>
-        <v>33.149659720812643</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="19"/>
-        <v>9.1243740954121666</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="19"/>
-        <v>27.920261126352965</v>
-      </c>
-      <c r="Q53">
-        <f t="shared" si="19"/>
-        <v>54.792052707543832</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A54">
-        <v>4</v>
-      </c>
-      <c r="B54">
-        <f>$D$6*B15</f>
         <v>57.610079530855842</v>
       </c>
       <c r="C54">
-        <f>$D$6*C15</f>
+        <f t="shared" si="21"/>
         <v>75.150496687443308</v>
       </c>
       <c r="D54">
-        <f>$D$6*D15</f>
+        <f t="shared" si="21"/>
         <v>91.270094217516359</v>
       </c>
       <c r="E54">
-        <f>$D$6*E15</f>
+        <f t="shared" si="21"/>
         <v>52.474449619443583</v>
       </c>
       <c r="G54">
         <v>4</v>
       </c>
       <c r="H54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>28.805039765427921</v>
       </c>
       <c r="I54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>37.575248343721654</v>
       </c>
       <c r="J54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>45.635047108758179</v>
       </c>
       <c r="K54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>26.237224809721791</v>
       </c>
       <c r="M54">
         <v>4</v>
       </c>
       <c r="N54">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>23.044031812342336</v>
       </c>
       <c r="O54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>30.060198674977322</v>
       </c>
       <c r="P54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>36.508037687006542</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>20.989779847777434</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -7624,7 +7637,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -7671,7 +7684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -7680,15 +7693,15 @@
         <v>80.932893263847504</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:E58" si="22">C51+C44</f>
+        <f t="shared" ref="C58:E58" si="26">C51+C44</f>
         <v>38.055873021891436</v>
       </c>
       <c r="D58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>93.159697404059003</v>
       </c>
       <c r="E58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>19.587968088640213</v>
       </c>
       <c r="G58">
@@ -7699,15 +7712,15 @@
         <v>58.860286010070908</v>
       </c>
       <c r="I58">
-        <f t="shared" ref="I58:K58" si="23">I51+I44</f>
+        <f t="shared" ref="I58:K58" si="27">I51+I44</f>
         <v>27.676998561375591</v>
       </c>
       <c r="J58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>67.752507202952003</v>
       </c>
       <c r="K58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>14.245794973556519</v>
       </c>
       <c r="M58">
@@ -7718,196 +7731,196 @@
         <v>58.860286010070908</v>
       </c>
       <c r="O58">
-        <f t="shared" ref="O58:Q58" si="24">O51+O44</f>
+        <f t="shared" ref="O58:Q58" si="28">O51+O44</f>
         <v>27.676998561375591</v>
       </c>
       <c r="P58">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>67.752507202952003</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>14.245794973556519</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
       <c r="B59">
-        <f t="shared" ref="B59:E61" si="25">B52+B45</f>
+        <f t="shared" ref="B59:E61" si="29">B52+B45</f>
         <v>43.945455019976272</v>
       </c>
       <c r="C59">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>165.31055185953738</v>
       </c>
       <c r="D59">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>16.86148085920227</v>
       </c>
       <c r="E59">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>79.769992384226313</v>
       </c>
       <c r="G59">
         <v>2</v>
       </c>
       <c r="H59">
-        <f t="shared" ref="H59:K61" si="26">H52+H45</f>
+        <f t="shared" ref="H59:K61" si="30">H52+H45</f>
         <v>31.960330923619111</v>
       </c>
       <c r="I59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>120.22585589784538</v>
       </c>
       <c r="J59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>12.262895170328923</v>
       </c>
       <c r="K59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>58.014539915800952</v>
       </c>
       <c r="M59">
         <v>2</v>
       </c>
       <c r="N59">
-        <f t="shared" ref="N59:Q61" si="27">N52+N45</f>
+        <f t="shared" ref="N59:Q61" si="31">N52+N45</f>
         <v>31.960330923619111</v>
       </c>
       <c r="O59">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>120.22585589784538</v>
       </c>
       <c r="P59">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>12.262895170328923</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>58.014539915800952</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>91.161564232234767</v>
       </c>
       <c r="C60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>25.092028762383457</v>
       </c>
       <c r="D60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>76.780718097470654</v>
       </c>
       <c r="E60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>150.67814494574554</v>
       </c>
       <c r="G60">
         <v>3</v>
       </c>
       <c r="H60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>66.299319441625286</v>
       </c>
       <c r="I60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>18.248748190824333</v>
       </c>
       <c r="J60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>55.840522252705931</v>
       </c>
       <c r="K60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>109.58410541508766</v>
       </c>
       <c r="M60">
         <v>3</v>
       </c>
       <c r="N60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>66.299319441625286</v>
       </c>
       <c r="O60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>18.248748190824333</v>
       </c>
       <c r="P60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>55.840522252705931</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>109.58410541508766</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
       <c r="B61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>63.371087483941423</v>
       </c>
       <c r="C61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>82.665546356187633</v>
       </c>
       <c r="D61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100.397103639268</v>
       </c>
       <c r="E61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>57.721894581387943</v>
       </c>
       <c r="G61">
         <v>4</v>
       </c>
       <c r="H61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>46.088063624684672</v>
       </c>
       <c r="I61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>60.120397349954644</v>
       </c>
       <c r="J61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>73.016075374013084</v>
       </c>
       <c r="K61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>41.979559695554869</v>
       </c>
       <c r="M61">
         <v>4</v>
       </c>
       <c r="N61">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>46.088063624684672</v>
       </c>
       <c r="O61">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>60.120397349954644</v>
       </c>
       <c r="P61">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>73.016075374013084</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>41.979559695554869</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E62">
         <f>SUM(B58:E61)</f>
         <v>1185.492</v>
@@ -7921,7 +7934,7 @@
         <v>862.17599999999982</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -7932,7 +7945,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -7979,7 +7992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -7988,15 +8001,15 @@
         <v>41.692702590466901</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:E66" si="28">$C$7*C12</f>
+        <f t="shared" ref="C66:E66" si="32">$C$7*C12</f>
         <v>19.604540647641045</v>
       </c>
       <c r="D66">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>47.991359268757677</v>
       </c>
       <c r="E66">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>10.090771439602534</v>
       </c>
       <c r="G66">
@@ -8007,15 +8020,15 @@
         <v>80.932893263847504</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66:K69" si="29">$E$7*C12</f>
+        <f t="shared" ref="I66:K69" si="33">$E$7*C12</f>
         <v>38.055873021891436</v>
       </c>
       <c r="J66">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>93.159697404059017</v>
       </c>
       <c r="K66">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>19.587968088640213</v>
       </c>
       <c r="M66">
@@ -8026,196 +8039,196 @@
         <v>83.385405180933802</v>
       </c>
       <c r="O66">
-        <f t="shared" ref="O66:Q69" si="30">$G$7*C12</f>
+        <f t="shared" ref="O66:Q69" si="34">$G$7*C12</f>
         <v>39.20908129528209</v>
       </c>
       <c r="P66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>95.982718537515353</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>20.181542879205068</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:E69" si="31">$C$7*B13</f>
+        <f t="shared" ref="B67:E69" si="35">$C$7*B13</f>
         <v>22.638567737563537</v>
       </c>
       <c r="C67">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>85.159981260973822</v>
       </c>
       <c r="D67">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>8.6862174123163225</v>
       </c>
       <c r="E67">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>41.093632440359016</v>
       </c>
       <c r="G67">
         <v>2</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H69" si="32">$E$7*B13</f>
+        <f t="shared" ref="H67:H69" si="36">$E$7*B13</f>
         <v>43.945455019976279</v>
       </c>
       <c r="I67">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>165.31055185953741</v>
       </c>
       <c r="J67">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>16.86148085920227</v>
       </c>
       <c r="K67">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>79.769992384226327</v>
       </c>
       <c r="M67">
         <v>2</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N69" si="33">$G$7*B13</f>
+        <f t="shared" ref="N67:N69" si="37">$G$7*B13</f>
         <v>45.277135475127075</v>
       </c>
       <c r="O67">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>170.31996252194764</v>
       </c>
       <c r="P67">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>17.372434824632645</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>82.187264880718033</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>46.962017937817919</v>
       </c>
       <c r="C68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>12.926196635167237</v>
       </c>
       <c r="D68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>39.553703262333372</v>
       </c>
       <c r="E68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>77.622074669020435</v>
       </c>
       <c r="G68">
         <v>3</v>
       </c>
       <c r="H68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>91.161564232234781</v>
       </c>
       <c r="I68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>25.09202876238346</v>
       </c>
       <c r="J68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>76.780718097470654</v>
       </c>
       <c r="K68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>150.67814494574554</v>
       </c>
       <c r="M68">
         <v>3</v>
       </c>
       <c r="N68">
+        <f t="shared" si="37"/>
+        <v>93.924035875635838</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="34"/>
+        <v>25.852393270334474</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="34"/>
+        <v>79.107406524666743</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="34"/>
+        <v>155.24414933804087</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="35"/>
+        <v>32.645711734151647</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="35"/>
+        <v>42.585281456217878</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="35"/>
+        <v>51.719720056592607</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="35"/>
+        <v>29.735521451018034</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="36"/>
+        <v>63.37108748394143</v>
+      </c>
+      <c r="I69">
         <f t="shared" si="33"/>
-        <v>93.924035875635838</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="30"/>
-        <v>25.852393270334474</v>
-      </c>
-      <c r="P68">
-        <f t="shared" si="30"/>
-        <v>79.107406524666743</v>
-      </c>
-      <c r="Q68">
-        <f t="shared" si="30"/>
-        <v>155.24414933804087</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A69">
-        <v>4</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="31"/>
-        <v>32.645711734151647</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="31"/>
-        <v>42.585281456217878</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="31"/>
-        <v>51.719720056592607</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="31"/>
-        <v>29.735521451018034</v>
-      </c>
-      <c r="G69">
-        <v>4</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="32"/>
-        <v>63.37108748394143</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="29"/>
         <v>82.665546356187647</v>
       </c>
       <c r="J69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100.397103639268</v>
       </c>
       <c r="K69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>57.721894581387943</v>
       </c>
       <c r="M69">
         <v>4</v>
       </c>
       <c r="N69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>65.291423468303293</v>
       </c>
       <c r="O69">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>85.170562912435756</v>
       </c>
       <c r="P69">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>103.43944011318521</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>59.471042902036068</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -8226,7 +8239,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -8273,7 +8286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -8282,15 +8295,15 @@
         <v>49.050238341725759</v>
       </c>
       <c r="C73">
-        <f t="shared" ref="C73:E73" si="34">$D$7*C12</f>
+        <f t="shared" ref="C73:E73" si="38">$D$7*C12</f>
         <v>23.064165467812995</v>
       </c>
       <c r="D73">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>56.460422669126672</v>
       </c>
       <c r="E73">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>11.8714958112971</v>
       </c>
       <c r="G73">
@@ -8301,15 +8314,15 @@
         <v>80.932893263847504</v>
       </c>
       <c r="I73">
-        <f t="shared" ref="I73:K76" si="35">$F$7*C12</f>
+        <f t="shared" ref="I73:K76" si="39">$F$7*C12</f>
         <v>38.055873021891436</v>
       </c>
       <c r="J73">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>93.159697404059017</v>
       </c>
       <c r="K73">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>19.587968088640213</v>
       </c>
       <c r="M73">
@@ -8320,196 +8333,196 @@
         <v>83.385405180933802</v>
       </c>
       <c r="O73">
-        <f t="shared" ref="O73:Q76" si="36">$H$7*C12</f>
+        <f t="shared" ref="O73:Q76" si="40">$H$7*C12</f>
         <v>39.20908129528209</v>
       </c>
       <c r="P73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>95.982718537515353</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>20.181542879205068</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
       <c r="B74">
-        <f t="shared" ref="B74:E76" si="37">$D$7*B13</f>
+        <f t="shared" ref="B74:E76" si="41">$D$7*B13</f>
         <v>26.633609103015928</v>
       </c>
       <c r="C74">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>100.18821324820449</v>
       </c>
       <c r="D74">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>10.219079308607437</v>
       </c>
       <c r="E74">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>48.345449929834132</v>
       </c>
       <c r="G74">
         <v>2</v>
       </c>
       <c r="H74">
-        <f t="shared" ref="H74:H76" si="38">$F$7*B13</f>
+        <f t="shared" ref="H74:H76" si="42">$F$7*B13</f>
         <v>43.945455019976279</v>
       </c>
       <c r="I74">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>165.31055185953741</v>
       </c>
       <c r="J74">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>16.86148085920227</v>
       </c>
       <c r="K74">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>79.769992384226327</v>
       </c>
       <c r="M74">
         <v>2</v>
       </c>
       <c r="N74">
-        <f t="shared" ref="N74:N76" si="39">$H$7*B13</f>
+        <f t="shared" ref="N74:N76" si="43">$H$7*B13</f>
         <v>45.277135475127075</v>
       </c>
       <c r="O74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>170.31996252194764</v>
       </c>
       <c r="P74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>17.372434824632645</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>82.187264880718033</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
       <c r="B75">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>55.249432868021074</v>
       </c>
       <c r="C75">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>15.207290159020278</v>
       </c>
       <c r="D75">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>46.53376854392161</v>
       </c>
       <c r="E75">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>91.3200878459064</v>
       </c>
       <c r="G75">
         <v>3</v>
       </c>
       <c r="H75">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>91.161564232234781</v>
       </c>
       <c r="I75">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>25.09202876238346</v>
       </c>
       <c r="J75">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>76.780718097470654</v>
       </c>
       <c r="K75">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>150.67814494574554</v>
       </c>
       <c r="M75">
         <v>3</v>
       </c>
       <c r="N75">
+        <f t="shared" si="43"/>
+        <v>93.924035875635838</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="40"/>
+        <v>25.852393270334474</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="40"/>
+        <v>79.107406524666743</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="40"/>
+        <v>155.24414933804087</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="41"/>
+        <v>38.406719687237228</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="41"/>
+        <v>50.10033112496221</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="41"/>
+        <v>60.846729478344244</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="41"/>
+        <v>34.982966412962391</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="42"/>
+        <v>63.37108748394143</v>
+      </c>
+      <c r="I76">
         <f t="shared" si="39"/>
-        <v>93.924035875635838</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="36"/>
-        <v>25.852393270334474</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="36"/>
-        <v>79.107406524666743</v>
-      </c>
-      <c r="Q75">
-        <f t="shared" si="36"/>
-        <v>155.24414933804087</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A76">
-        <v>4</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="37"/>
-        <v>38.406719687237228</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="37"/>
-        <v>50.10033112496221</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="37"/>
-        <v>60.846729478344244</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="37"/>
-        <v>34.982966412962391</v>
-      </c>
-      <c r="G76">
-        <v>4</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="38"/>
-        <v>63.37108748394143</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="35"/>
         <v>82.665546356187647</v>
       </c>
       <c r="J76">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>100.397103639268</v>
       </c>
       <c r="K76">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>57.721894581387943</v>
       </c>
       <c r="M76">
         <v>4</v>
       </c>
       <c r="N76">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>65.291423468303293</v>
       </c>
       <c r="O76">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>85.170562912435756</v>
       </c>
       <c r="P76">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>103.43944011318521</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>59.471042902036068</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>52</v>
       </c>
@@ -8520,7 +8533,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -8567,7 +8580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -8576,15 +8589,15 @@
         <v>90.742940932192653</v>
       </c>
       <c r="C80">
-        <f t="shared" ref="C80:E80" si="40">C66+C73</f>
+        <f t="shared" ref="C80:E80" si="44">C66+C73</f>
         <v>42.668706115454043</v>
       </c>
       <c r="D80">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>104.45178193788435</v>
       </c>
       <c r="E80">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>21.962267250899636</v>
       </c>
       <c r="G80">
@@ -8595,15 +8608,15 @@
         <v>161.86578652769501</v>
       </c>
       <c r="I80">
-        <f t="shared" ref="I80:K80" si="41">I66+I73</f>
+        <f t="shared" ref="I80:K80" si="45">I66+I73</f>
         <v>76.111746043782873</v>
       </c>
       <c r="J80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>186.31939480811803</v>
       </c>
       <c r="K80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>39.175936177280427</v>
       </c>
       <c r="M80">
@@ -8614,196 +8627,196 @@
         <v>166.7708103618676</v>
       </c>
       <c r="O80">
-        <f t="shared" ref="O80:Q80" si="42">O66+O73</f>
+        <f t="shared" ref="O80:Q80" si="46">O66+O73</f>
         <v>78.418162590564179</v>
       </c>
       <c r="P80">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>191.96543707503071</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>40.363085758410136</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
       <c r="B81">
-        <f t="shared" ref="B81:E83" si="43">B67+B74</f>
+        <f t="shared" ref="B81:E83" si="47">B67+B74</f>
         <v>49.272176840579462</v>
       </c>
       <c r="C81">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>185.34819450917831</v>
       </c>
       <c r="D81">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>18.905296720923758</v>
       </c>
       <c r="E81">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>89.439082370193148</v>
       </c>
       <c r="G81">
         <v>2</v>
       </c>
       <c r="H81">
-        <f t="shared" ref="H81:K83" si="44">H67+H74</f>
+        <f t="shared" ref="H81:K83" si="48">H67+H74</f>
         <v>87.890910039952558</v>
       </c>
       <c r="I81">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>330.62110371907482</v>
       </c>
       <c r="J81">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>33.722961718404541</v>
       </c>
       <c r="K81">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>159.53998476845265</v>
       </c>
       <c r="M81">
         <v>2</v>
       </c>
       <c r="N81">
-        <f t="shared" ref="N81:Q83" si="45">N67+N74</f>
+        <f t="shared" ref="N81:Q83" si="49">N67+N74</f>
         <v>90.55427095025415</v>
       </c>
       <c r="O81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>340.63992504389529</v>
       </c>
       <c r="P81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>34.74486964926529</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>164.37452976143607</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
       <c r="B82">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>102.21145080583899</v>
       </c>
       <c r="C82">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>28.133486794187515</v>
       </c>
       <c r="D82">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>86.087471806254982</v>
       </c>
       <c r="E82">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>168.94216251492685</v>
       </c>
       <c r="G82">
         <v>3</v>
       </c>
       <c r="H82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>182.32312846446956</v>
       </c>
       <c r="I82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>50.184057524766921</v>
       </c>
       <c r="J82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>153.56143619494131</v>
       </c>
       <c r="K82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>301.35628989149109</v>
       </c>
       <c r="M82">
         <v>3</v>
       </c>
       <c r="N82">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>187.84807175127168</v>
       </c>
       <c r="O82">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>51.704786540668948</v>
       </c>
       <c r="P82">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>158.21481304933349</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>310.48829867608174</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
       <c r="B83">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>71.052431421388874</v>
       </c>
       <c r="C83">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>92.685612581180095</v>
       </c>
       <c r="D83">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>112.56644953493685</v>
       </c>
       <c r="E83">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>64.718487863980428</v>
       </c>
       <c r="G83">
         <v>4</v>
       </c>
       <c r="H83">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>126.74217496788286</v>
       </c>
       <c r="I83">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>165.33109271237529</v>
       </c>
       <c r="J83">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>200.79420727853599</v>
       </c>
       <c r="K83">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>115.44378916277589</v>
       </c>
       <c r="M83">
         <v>4</v>
       </c>
       <c r="N83">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>130.58284693660659</v>
       </c>
       <c r="O83">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>170.34112582487151</v>
       </c>
       <c r="P83">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>206.87888022637043</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>118.94208580407214</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E84">
         <f>SUM(B80:E83)</f>
         <v>1329.1880000000001</v>
@@ -8829,32 +8842,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="J40" sqref="J40:J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.08984375" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" customWidth="1"/>
-    <col min="4" max="4" width="6.81640625" customWidth="1"/>
-    <col min="5" max="5" width="8.08984375" customWidth="1"/>
-    <col min="8" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -8886,167 +8899,167 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <f>'OD_convert 2015'!B36</f>
         <v>75</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <f>'OD_convert 2015'!C36</f>
         <v>37.5</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <f>'OD_convert 2015'!D36</f>
         <v>112.5</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <f>'OD_convert 2015'!E36</f>
         <v>22.5</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <f>'OD_convert 2025'!B36</f>
         <v>73.575357512588639</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <f>'OD_convert 2025'!C36</f>
         <v>34.59624820171949</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <f>'OD_convert 2025'!D36</f>
         <v>84.690634003690008</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="4">
         <f>'OD_convert 2025'!E36</f>
         <v>17.807243716945649</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <f>'OD_convert 2015'!B37</f>
         <v>30</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <f>'OD_convert 2015'!C37</f>
         <v>120</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <f>'OD_convert 2015'!D37</f>
         <v>15</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <f>'OD_convert 2015'!E37</f>
         <v>67.5</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <f>'OD_convert 2025'!B37</f>
         <v>39.950413654523885</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <f>'OD_convert 2025'!C37</f>
         <v>150.28231987230672</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
         <f>'OD_convert 2025'!D37</f>
         <v>15.328618962911154</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <f>'OD_convert 2025'!E37</f>
         <v>72.518174894751198</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <f>'OD_convert 2015'!B38</f>
         <v>61.5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <f>'OD_convert 2015'!C38</f>
         <v>18</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <f>'OD_convert 2015'!D38</f>
         <v>67.5</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <f>'OD_convert 2015'!E38</f>
         <v>126</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <f>'OD_convert 2025'!B38</f>
         <v>82.874149302031611</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <f>'OD_convert 2025'!C38</f>
         <v>22.810935238530416</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <f>'OD_convert 2025'!D38</f>
         <v>69.800652815882415</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <f>'OD_convert 2025'!E38</f>
         <v>136.98013176885959</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <f>'OD_convert 2015'!B39</f>
         <v>46.5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <f>'OD_convert 2015'!C39</f>
         <v>64.5</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <f>'OD_convert 2015'!D39</f>
         <v>96</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <f>'OD_convert 2015'!E39</f>
         <v>52.5</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <f>'OD_convert 2025'!B39</f>
         <v>57.610079530855842</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <f>'OD_convert 2025'!C39</f>
         <v>75.150496687443308</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <f>'OD_convert 2025'!D39</f>
         <v>91.270094217516359</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <f>'OD_convert 2025'!E39</f>
         <v>52.474449619443583</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -9054,7 +9067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -9086,7 +9099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -9118,7 +9131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -9150,7 +9163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9182,7 +9195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -9214,7 +9227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -9222,7 +9235,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -9254,385 +9267,385 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <f>EXP(-0.333*B10)/(EXP(-0.333*B10) + EXP(-7+-0.5*1))*B3</f>
         <v>74.78138236736099</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <f t="shared" ref="C17:E17" si="0">EXP(-0.333*C10)/(EXP(-0.333*C10) + EXP(-7+-0.5*1))*C3</f>
         <v>33.6640039253815</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <f t="shared" si="0"/>
         <v>107.96942838203519</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>18.415522132440579</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <f>EXP(-0.333*H10)/(EXP(-0.333*H10) + EXP(-7+-0.5*1))*H3</f>
         <v>73.360892572855704</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <f t="shared" ref="I17:K17" si="1">EXP(-0.333*I10)/(EXP(-0.333*I10) + EXP(-7+-0.5*1))*I3</f>
         <v>31.057286273764202</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <f t="shared" si="1"/>
         <v>81.279994157249448</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="5">
         <f t="shared" si="1"/>
         <v>14.574652923874492</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <f t="shared" ref="B18:E18" si="2">EXP(-0.333*B11)/(EXP(-0.333*B11) + EXP(-7+-0.5*1))*B4</f>
         <v>26.9312031403052</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <f t="shared" si="2"/>
         <v>119.32103274987335</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <f t="shared" si="2"/>
         <v>10.476978240038079</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <f t="shared" si="2"/>
         <v>65.529092293817527</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="5">
         <f t="shared" ref="H18:K18" si="3">EXP(-0.333*H11)/(EXP(-0.333*H11) + EXP(-7+-0.5*1))*H4</f>
         <v>35.863756855640176</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="5">
         <f t="shared" si="3"/>
         <v>149.43201342675377</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="5">
         <f t="shared" si="3"/>
         <v>10.70650715495035</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="5">
         <f t="shared" si="3"/>
         <v>70.400743343071895</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <f t="shared" ref="B19:E19" si="4">EXP(-0.333*B12)/(EXP(-0.333*B12) + EXP(-7+-0.5*1))*B5</f>
         <v>59.023287515512571</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <f t="shared" si="4"/>
         <v>12.572373888045696</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <f t="shared" si="4"/>
         <v>67.427411470564095</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <f t="shared" si="4"/>
         <v>124.619746643368</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="5">
         <f t="shared" ref="H19:K19" si="5">EXP(-0.333*H12)/(EXP(-0.333*H12) + EXP(-7+-0.5*1))*H5</f>
         <v>79.536662469224837</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="5">
         <f t="shared" si="5"/>
         <v>15.932644808600067</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="5">
         <f t="shared" si="5"/>
         <v>69.725590197488771</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="5">
         <f t="shared" si="5"/>
         <v>135.47959774770197</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <f t="shared" ref="B20:E20" si="6">EXP(-0.333*B13)/(EXP(-0.333*B13) + EXP(-7+-0.5*1))*B6</f>
         <v>38.058745740377198</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="5">
         <f t="shared" si="6"/>
         <v>62.616688191870082</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <f t="shared" si="6"/>
         <v>94.948378394947042</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <f t="shared" si="6"/>
         <v>52.421266586062757</v>
       </c>
       <c r="G20">
         <v>4</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="5">
         <f t="shared" ref="H20:K20" si="7">EXP(-0.333*H13)/(EXP(-0.333*H13) + EXP(-7+-0.5*1))*H6</f>
         <v>47.151986428983903</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="5">
         <f t="shared" si="7"/>
         <v>72.956204938632609</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="5">
         <f t="shared" si="7"/>
         <v>90.270285853200122</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="5">
         <f t="shared" si="7"/>
         <v>52.395754523005166</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
       <c r="G22" t="s">
         <v>78</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2</v>
-      </c>
-      <c r="D23" s="7">
-        <v>3</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5">
         <v>4</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2</v>
-      </c>
-      <c r="J23" s="7">
-        <v>3</v>
-      </c>
-      <c r="K23" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2</v>
+      </c>
+      <c r="J23" s="5">
+        <v>3</v>
+      </c>
+      <c r="K23" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <f>EXP(-7+-0.5*1)/(EXP(-0.333*B10)+EXP(-7+-0.5*1))*B3</f>
         <v>0.2186176326390028</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <f t="shared" ref="C24:E24" si="8">EXP(-7+-0.5*1)/(EXP(-0.333*C10)+EXP(-7+-0.5*1))*C3</f>
         <v>3.8359960746185</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <f t="shared" si="8"/>
         <v>4.5305716179648128</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <f t="shared" si="8"/>
         <v>4.0844778675594204</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="5">
         <f>EXP(-7+-0.5*1)/(EXP(-0.333*H10)+EXP(-7+-0.5*1))*H3</f>
         <v>0.21446493973293862</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="5">
         <f t="shared" ref="I24:K24" si="9">EXP(-7+-0.5*1)/(EXP(-0.333*I10)+EXP(-7+-0.5*1))*I3</f>
         <v>3.5389619279552882</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="5">
         <f t="shared" si="9"/>
         <v>3.4106398464405654</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="5">
         <f t="shared" si="9"/>
         <v>3.2325907930711582</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <f t="shared" ref="B25:E25" si="10">EXP(-7+-0.5*1)/(EXP(-0.333*B11)+EXP(-7+-0.5*1))*B4</f>
         <v>3.0687968596948001</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="5">
         <f t="shared" si="10"/>
         <v>0.67896725012664461</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <f t="shared" si="10"/>
         <v>4.5230217599619191</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <f t="shared" si="10"/>
         <v>1.9709077061824709</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="5">
         <f t="shared" ref="H25:K25" si="11">EXP(-7+-0.5*1)/(EXP(-0.333*H11)+EXP(-7+-0.5*1))*H4</f>
         <v>4.0866567988837055</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="5">
         <f t="shared" si="11"/>
         <v>0.85030644555294077</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="5">
         <f t="shared" si="11"/>
         <v>4.6221118079608035</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="5">
         <f t="shared" si="11"/>
         <v>2.1174315516793083</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="5">
         <f t="shared" ref="B26:E26" si="12">EXP(-7+-0.5*1)/(EXP(-0.333*B12)+EXP(-7+-0.5*1))*B5</f>
         <v>2.4767124844874306</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="5">
         <f t="shared" si="12"/>
         <v>5.4276261119543028</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="5">
         <f t="shared" si="12"/>
         <v>7.2588529435906671E-2</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <f t="shared" si="12"/>
         <v>1.3802533566320068</v>
       </c>
       <c r="G26">
         <v>3</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <f t="shared" ref="H26:K26" si="13">EXP(-7+-0.5*1)/(EXP(-0.333*H12)+EXP(-7+-0.5*1))*H5</f>
         <v>3.3374868328067806</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="5">
         <f t="shared" si="13"/>
         <v>6.8782904299303462</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="5">
         <f t="shared" si="13"/>
         <v>7.506261839364714E-2</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="5">
         <f t="shared" si="13"/>
         <v>1.5005340211576432</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <f t="shared" ref="B27:E27" si="14">EXP(-7+-0.5*1)/(EXP(-0.333*B13)+EXP(-7+-0.5*1))*B6</f>
         <v>8.4412542596228022</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <f t="shared" si="14"/>
         <v>1.8833118081299165</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <f t="shared" si="14"/>
         <v>1.0516216050529577</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <f t="shared" si="14"/>
         <v>7.8733413937242661E-2</v>
       </c>
       <c r="G27">
         <v>4</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="5">
         <f t="shared" ref="H27:K27" si="15">EXP(-7+-0.5*1)/(EXP(-0.333*H13)+EXP(-7+-0.5*1))*H6</f>
         <v>10.458093101871942</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="5">
         <f t="shared" si="15"/>
         <v>2.1942917488107003</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="5">
         <f t="shared" si="15"/>
         <v>0.99980836431624187</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="5">
         <f t="shared" si="15"/>
         <v>7.8695096438412132E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -9640,7 +9653,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -9672,172 +9685,172 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="5">
         <f>B17/1.1</f>
         <v>67.983074879419078</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="5">
         <f t="shared" ref="C31:E31" si="16">C17/1.1</f>
         <v>30.603639932164999</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="5">
         <f t="shared" si="16"/>
         <v>98.154025801850167</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="5">
         <f t="shared" si="16"/>
         <v>16.741383756764161</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="5">
         <f>H17/1.1</f>
         <v>66.691720520777906</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="5">
         <f t="shared" ref="I31:K31" si="17">I17/1.1</f>
         <v>28.233896612512908</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="5">
         <f t="shared" si="17"/>
         <v>73.890903779317668</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="5">
         <f t="shared" si="17"/>
         <v>13.249684476249538</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="5">
         <f t="shared" ref="B32:E32" si="18">B18/1.1</f>
         <v>24.482911945731999</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="5">
         <f t="shared" si="18"/>
         <v>108.4736661362485</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="5">
         <f t="shared" si="18"/>
         <v>9.5245256727618894</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <f t="shared" si="18"/>
         <v>59.571902085288656</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="5">
         <f t="shared" ref="H32:K32" si="19">H18/1.1</f>
         <v>32.60341532330925</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="5">
         <f t="shared" si="19"/>
         <v>135.84728493341251</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="5">
         <f t="shared" si="19"/>
         <v>9.7331883226821354</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="5">
         <f t="shared" si="19"/>
         <v>64.000675766428984</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="5">
         <f t="shared" ref="B33:E33" si="20">B19/1.1</f>
         <v>53.657534105011422</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="5">
         <f t="shared" si="20"/>
         <v>11.429430807314269</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="5">
         <f t="shared" si="20"/>
         <v>61.297646791421897</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="5">
         <f t="shared" si="20"/>
         <v>113.29067876669818</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="5">
         <f t="shared" ref="H33:K33" si="21">H19/1.1</f>
         <v>72.306056790204394</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="5">
         <f t="shared" si="21"/>
         <v>14.484222553272787</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="5">
         <f t="shared" si="21"/>
         <v>63.386900179535239</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="5">
         <f t="shared" si="21"/>
         <v>123.16327067972905</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="5">
         <f t="shared" ref="B34:E34" si="22">B20/1.1</f>
         <v>34.59885976397927</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="5">
         <f t="shared" si="22"/>
         <v>56.924261992609161</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="5">
         <f t="shared" si="22"/>
         <v>86.316707631770029</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="5">
         <f t="shared" si="22"/>
         <v>47.655696896420686</v>
       </c>
       <c r="G34">
         <v>4</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="5">
         <f t="shared" ref="H34:K34" si="23">H20/1.1</f>
         <v>42.865442208167181</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="5">
         <f t="shared" si="23"/>
         <v>66.32382267148418</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="5">
         <f t="shared" si="23"/>
         <v>82.063896230181925</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="5">
         <f t="shared" si="23"/>
         <v>47.632504111822875</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="E35" s="7">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E35" s="5">
         <f>SUM(B31:E34)</f>
         <v>880.70594696545425</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="5">
         <f>SUM(H31:K34)</f>
         <v>936.47688515908851</v>
       </c>

--- a/HW5/HW5_data_files/HW5_calculations_v2.xlsx
+++ b/HW5/HW5_data_files/HW5_calculations_v2.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{638BE007-1967-45EC-A530-FF8E74EFE70C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Prod_Attr" sheetId="1" r:id="rId1"/>
-    <sheet name="Skims" sheetId="2" r:id="rId2"/>
+    <sheet name="IPF" sheetId="2" r:id="rId2"/>
     <sheet name="OD_convert 2015" sheetId="3" r:id="rId3"/>
     <sheet name="OD_convert 2025" sheetId="4" r:id="rId4"/>
     <sheet name="Mode Share" sheetId="5" r:id="rId5"/>
+    <sheet name="TrafAsmtUE_2015" sheetId="10" r:id="rId6"/>
+    <sheet name="TrafAsmtUE_2025" sheetId="7" r:id="rId7"/>
+    <sheet name="TrafAsmtUE_2-5" sheetId="8" r:id="rId8"/>
+    <sheet name="TrafAsmtUE_2-6" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="111">
   <si>
     <t>---------------</t>
   </si>
@@ -266,11 +269,98 @@
   <si>
     <t>2015 Seed Matrix</t>
   </si>
+  <si>
+    <t>Balanced Attractions</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Total Travel Time (Min)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Average Travel Time (Min)</t>
+  </si>
+  <si>
+    <t>Total Trips</t>
+  </si>
+  <si>
+    <t>John Gliebe</t>
+  </si>
+  <si>
+    <t>Portland State University</t>
+  </si>
+  <si>
+    <t>USP587</t>
+  </si>
+  <si>
+    <t>Introduction to Travel Demand Modeling</t>
+  </si>
+  <si>
+    <t>Highway Network User Equilibrium Assignment</t>
+  </si>
+  <si>
+    <t>Results of Analysis:</t>
+  </si>
+  <si>
+    <t>Total Vehicle-Minutes on the Network:</t>
+  </si>
+  <si>
+    <t>Iterations:</t>
+  </si>
+  <si>
+    <t>Convergence:</t>
+  </si>
+  <si>
+    <t>FromNode</t>
+  </si>
+  <si>
+    <t>ToNode</t>
+  </si>
+  <si>
+    <t>Flow (vph)</t>
+  </si>
+  <si>
+    <t>V/C ratio</t>
+  </si>
+  <si>
+    <t>Congested Time (min)</t>
+  </si>
+  <si>
+    <t>Free-flow Time (min)</t>
+  </si>
+  <si>
+    <t>Link length</t>
+  </si>
+  <si>
+    <t>VMT AM</t>
+  </si>
+  <si>
+    <t>Avg Spd</t>
+  </si>
+  <si>
+    <t>avg spd</t>
+  </si>
+  <si>
+    <t>AVG Spd</t>
+  </si>
+  <si>
+    <t>Total VMT</t>
+  </si>
+  <si>
+    <t>Total Vehicle Minutes</t>
+  </si>
+  <si>
+    <t>Avg Speed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -311,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -324,6 +414,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,23 +509,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -469,23 +544,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -661,16 +719,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B30"/>
+      <selection activeCell="A25" sqref="A25:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -678,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
@@ -696,7 +754,7 @@
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -720,7 +778,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -747,7 +805,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D6">
         <v>2015</v>
       </c>
@@ -773,7 +831,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -781,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
@@ -816,7 +874,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2</v>
       </c>
@@ -851,7 +909,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>3</v>
       </c>
@@ -886,7 +944,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>4</v>
       </c>
@@ -921,7 +979,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -929,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -964,7 +1022,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -972,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -983,7 +1041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -991,7 +1049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1008,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1025,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1042,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1059,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B22">
         <f>SUM(B18:B21)</f>
         <v>3375</v>
@@ -1069,7 +1127,7 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1079,8 +1137,11 @@
       <c r="G25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1088,7 +1149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1112,7 +1173,7 @@
         <v>686.78235294117644</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1136,7 +1197,7 @@
         <v>943.02968664101149</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1160,7 +1221,7 @@
         <v>1047.2073117097307</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1184,7 +1245,7 @@
         <v>915.38064870808137</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B31">
         <f>SUM(B27:B30)</f>
         <v>3592.4</v>
@@ -1214,16 +1275,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50:O53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1231,7 +1297,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1263,7 +1329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1295,7 +1361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1327,7 +1393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1359,7 +1425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1391,7 +1457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1399,7 +1465,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1440,7 +1506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1487,7 +1553,7 @@
         <v>0.83246345811051692</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1534,7 +1600,7 @@
         <v>1.2168124988916278</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1581,7 +1647,7 @@
         <v>1.1507772656150888</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1628,7 +1694,7 @@
         <v>1.0582435245180131</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1672,7 +1738,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K15" t="s">
         <v>26</v>
       </c>
@@ -1689,7 +1755,7 @@
         <v>932.6</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1710,7 +1776,7 @@
         <v>1.0420111731843575</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1727,7 +1793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1751,7 +1817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1793,7 +1859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1844,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1895,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K22">
         <v>3</v>
       </c>
@@ -1927,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1966,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1994,7 +2060,7 @@
         <v>1004.7366399578947</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K25" t="s">
         <v>26</v>
       </c>
@@ -2011,7 +2077,7 @@
         <v>932.6</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="L26">
         <f>L25/L24</f>
         <v>1.1602854845022561</v>
@@ -2029,12 +2095,12 @@
         <v>0.92820343452298337</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K29" t="s">
         <v>12</v>
       </c>
@@ -2057,7 +2123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K30">
         <v>1</v>
       </c>
@@ -2089,7 +2155,7 @@
         <v>0.95924284541683558</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K31">
         <v>2</v>
       </c>
@@ -2121,7 +2187,7 @@
         <v>0.89083853164996973</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K32">
         <v>3</v>
       </c>
@@ -2153,7 +2219,7 @@
         <v>0.95318088373766241</v>
       </c>
     </row>
-    <row r="33" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:18" x14ac:dyDescent="0.4">
       <c r="K33">
         <v>4</v>
       </c>
@@ -2185,7 +2251,7 @@
         <v>0.95297724763157343</v>
       </c>
     </row>
-    <row r="34" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:18" x14ac:dyDescent="0.4">
       <c r="K34" t="s">
         <v>25</v>
       </c>
@@ -2210,7 +2276,7 @@
         <v>3833.742681922105</v>
       </c>
     </row>
-    <row r="35" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:18" x14ac:dyDescent="0.4">
       <c r="K35" t="s">
         <v>26</v>
       </c>
@@ -2227,7 +2293,7 @@
         <v>932.6</v>
       </c>
     </row>
-    <row r="36" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:18" x14ac:dyDescent="0.4">
       <c r="L36">
         <f>L35/L34</f>
         <v>0.97295700247620409</v>
@@ -2245,12 +2311,12 @@
         <v>0.89078069257781478</v>
       </c>
     </row>
-    <row r="38" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:18" x14ac:dyDescent="0.4">
       <c r="K38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:18" x14ac:dyDescent="0.4">
       <c r="K39" t="s">
         <v>12</v>
       </c>
@@ -2273,7 +2339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:18" x14ac:dyDescent="0.4">
       <c r="K40">
         <v>1</v>
       </c>
@@ -2305,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:18" x14ac:dyDescent="0.4">
       <c r="K41">
         <v>2</v>
       </c>
@@ -2337,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="11:18" x14ac:dyDescent="0.4">
       <c r="K42">
         <v>3</v>
       </c>
@@ -2369,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:18" x14ac:dyDescent="0.4">
       <c r="K43">
         <v>4</v>
       </c>
@@ -2401,7 +2467,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="44" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="11:18" x14ac:dyDescent="0.4">
       <c r="K44" t="s">
         <v>25</v>
       </c>
@@ -2422,7 +2488,7 @@
         <v>980.49943963270005</v>
       </c>
     </row>
-    <row r="45" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:18" x14ac:dyDescent="0.4">
       <c r="K45" t="s">
         <v>26</v>
       </c>
@@ -2439,7 +2505,7 @@
         <v>932.6</v>
       </c>
     </row>
-    <row r="46" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="11:18" x14ac:dyDescent="0.4">
       <c r="L46">
         <f>L45/L44</f>
         <v>1.0301635023303191</v>
@@ -2457,12 +2523,12 @@
         <v>0.95114791738112225</v>
       </c>
     </row>
-    <row r="48" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="11:18" x14ac:dyDescent="0.4">
       <c r="K48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K49" t="s">
         <v>12</v>
       </c>
@@ -2485,27 +2551,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K50">
         <v>1</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="4">
         <f>L40*L$46</f>
         <v>245.2511917086288</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="4">
         <f t="shared" ref="M50:O50" si="45">M40*M$46</f>
         <v>115.32082733906496</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="4">
         <f t="shared" si="45"/>
         <v>282.30211334563336</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="4">
         <f t="shared" si="45"/>
         <v>59.357479056485495</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="4">
         <f>SUM(L50:O50)</f>
         <v>702.23161144981259</v>
       </c>
@@ -2517,27 +2583,27 @@
         <v>0.97799976780205045</v>
       </c>
     </row>
-    <row r="51" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K51">
         <v>2</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="4">
         <f t="shared" ref="L51:O51" si="46">L41*L$46</f>
         <v>133.16804551507963</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="4">
         <f t="shared" si="46"/>
         <v>500.94106624102244</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="4">
         <f t="shared" si="46"/>
         <v>51.095396543037182</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="4">
         <f t="shared" si="46"/>
         <v>241.72724964917066</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="4">
         <f t="shared" ref="P51:P53" si="47">SUM(L51:O51)</f>
         <v>926.93175794830984</v>
       </c>
@@ -2549,27 +2615,27 @@
         <v>1.0173668973521126</v>
       </c>
     </row>
-    <row r="52" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K52">
         <v>3</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="4">
         <f t="shared" ref="L52:O52" si="48">L42*L$46</f>
         <v>276.24716434010537</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="4">
         <f t="shared" si="48"/>
         <v>76.036450795101388</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="4">
         <f t="shared" si="48"/>
         <v>232.66884271960805</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="4">
         <f t="shared" si="48"/>
         <v>456.60043922953196</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="4">
         <f t="shared" si="47"/>
         <v>1041.5528970843468</v>
       </c>
@@ -2581,27 +2647,27 @@
         <v>1.0054288309707673</v>
       </c>
     </row>
-    <row r="53" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K53">
         <v>4</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="4">
         <f t="shared" ref="L53:O53" si="49">L43*L$46</f>
         <v>192.03359843618614</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="4">
         <f t="shared" si="49"/>
         <v>250.50165562481104</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="4">
         <f t="shared" si="49"/>
         <v>304.23364739172121</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="4">
         <f t="shared" si="49"/>
         <v>174.91483206481195</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="4">
         <f t="shared" si="47"/>
         <v>921.6837335175303</v>
       </c>
@@ -2613,7 +2679,7 @@
         <v>0.99316133660578587</v>
       </c>
     </row>
-    <row r="54" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K54" t="s">
         <v>25</v>
       </c>
@@ -2638,7 +2704,7 @@
         <v>3592.3999999999996</v>
       </c>
     </row>
-    <row r="55" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K55" t="s">
         <v>26</v>
       </c>
@@ -2655,7 +2721,7 @@
         <v>932.6</v>
       </c>
     </row>
-    <row r="56" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
       <c r="L56">
         <f>L55/L54</f>
         <v>1</v>
@@ -2673,12 +2739,12 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="58" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K58" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K59" t="s">
         <v>12</v>
       </c>
@@ -2695,7 +2761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K60">
         <v>1</v>
       </c>
@@ -2716,7 +2782,7 @@
         <v>1068.4346230167389</v>
       </c>
     </row>
-    <row r="61" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K61">
         <v>2</v>
       </c>
@@ -2741,7 +2807,7 @@
         <v>9559.9111185792226</v>
       </c>
     </row>
-    <row r="62" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K62">
         <v>3</v>
       </c>
@@ -2762,7 +2828,7 @@
         <v>4109.4039530657874</v>
       </c>
     </row>
-    <row r="63" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
       <c r="K63">
         <v>4</v>
       </c>
@@ -2783,13 +2849,28 @@
         <v>524.7444961944359</v>
       </c>
     </row>
-    <row r="64" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A64" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="M64">
         <f>SUM(M60:M63)</f>
         <v>9878.4695845119568</v>
       </c>
     </row>
-    <row r="65" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" t="s">
+        <v>86</v>
+      </c>
       <c r="K65" t="s">
         <v>31</v>
       </c>
@@ -2798,7 +2879,22 @@
         <v>36781.818163954791</v>
       </c>
     </row>
-    <row r="66" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>2015</v>
+      </c>
+      <c r="B66" s="8">
+        <f>SUM(B10:E13)</f>
+        <v>3375</v>
+      </c>
+      <c r="C66" s="8">
+        <f>B23</f>
+        <v>34445</v>
+      </c>
+      <c r="D66" s="8">
+        <f>B24</f>
+        <v>10.205925925925927</v>
+      </c>
       <c r="K66" t="s">
         <v>30</v>
       </c>
@@ -2807,13 +2903,31 @@
         <v>10.238786929059902</v>
       </c>
     </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>2025</v>
+      </c>
+      <c r="B67" s="8">
+        <f>SUM(L50:O53)</f>
+        <v>3592.3999999999996</v>
+      </c>
+      <c r="C67" s="8">
+        <f>L65</f>
+        <v>36781.818163954791</v>
+      </c>
+      <c r="D67" s="8">
+        <f>L66</f>
+        <v>10.238786929059902</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2821,17 +2935,17 @@
       <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C2" s="6" t="s">
         <v>34</v>
       </c>
@@ -2851,7 +2965,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -2881,12 +2995,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -2915,7 +3029,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2944,7 +3058,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2973,17 +3087,17 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3000,7 +3114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3017,7 +3131,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3034,7 +3148,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3051,7 +3165,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>4</v>
       </c>
@@ -3068,7 +3182,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -3089,12 +3203,12 @@
         <v>895</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -3105,7 +3219,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -3152,7 +3266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3211,7 +3325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3270,7 +3384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3329,7 +3443,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>4</v>
       </c>
@@ -3388,7 +3502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -3399,7 +3513,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -3446,7 +3560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3505,7 +3619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3564,7 +3678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>3</v>
       </c>
@@ -3623,7 +3737,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3682,7 +3796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -3693,7 +3807,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -3740,7 +3854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1</v>
       </c>
@@ -3799,7 +3913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>2</v>
       </c>
@@ -3858,7 +3972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>3</v>
       </c>
@@ -3917,7 +4031,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3976,7 +4090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E40">
         <f>SUM(B36:E39)</f>
         <v>1012.5</v>
@@ -3990,7 +4104,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -4001,7 +4115,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -4048,7 +4162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>1</v>
       </c>
@@ -4107,7 +4221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>2</v>
       </c>
@@ -4166,7 +4280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>3</v>
       </c>
@@ -4225,7 +4339,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>4</v>
       </c>
@@ -4284,7 +4398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -4295,7 +4409,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -4342,7 +4456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>1</v>
       </c>
@@ -4401,7 +4515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>2</v>
       </c>
@@ -4460,7 +4574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>3</v>
       </c>
@@ -4519,7 +4633,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>4</v>
       </c>
@@ -4578,7 +4692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -4589,7 +4703,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -4636,7 +4750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>1</v>
       </c>
@@ -4695,7 +4809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>2</v>
       </c>
@@ -4754,7 +4868,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>3</v>
       </c>
@@ -4813,7 +4927,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>4</v>
       </c>
@@ -4872,7 +4986,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E62">
         <f>SUM(B58:E61)</f>
         <v>1113.75</v>
@@ -4886,7 +5000,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -4897,7 +5011,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -4944,7 +5058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>1</v>
       </c>
@@ -5003,7 +5117,7 @@
         <v>25.500000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>2</v>
       </c>
@@ -5062,7 +5176,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>3</v>
       </c>
@@ -5121,7 +5235,7 @@
         <v>142.80000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>4</v>
       </c>
@@ -5180,7 +5294,7 @@
         <v>59.500000000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -5191,7 +5305,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -5238,7 +5352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>1</v>
       </c>
@@ -5297,7 +5411,7 @@
         <v>25.500000000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>2</v>
       </c>
@@ -5356,7 +5470,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>3</v>
       </c>
@@ -5415,7 +5529,7 @@
         <v>142.80000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>4</v>
       </c>
@@ -5474,7 +5588,7 @@
         <v>59.500000000000007</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>52</v>
       </c>
@@ -5485,7 +5599,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -5532,7 +5646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>1</v>
       </c>
@@ -5591,7 +5705,7 @@
         <v>51.000000000000007</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>2</v>
       </c>
@@ -5650,7 +5764,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>3</v>
       </c>
@@ -5709,7 +5823,7 @@
         <v>285.60000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>4</v>
       </c>
@@ -5768,7 +5882,7 @@
         <v>119.00000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E84">
         <f>SUM(B80:E83)</f>
         <v>1248.7500000000002</v>
@@ -5794,25 +5908,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C2" s="6" t="s">
         <v>34</v>
       </c>
@@ -5832,7 +5946,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -5862,12 +5976,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -5896,7 +6010,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -5925,7 +6039,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -5954,17 +6068,17 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -5987,7 +6101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -6013,7 +6127,7 @@
         <v>1.0492773385609955</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6039,7 +6153,7 @@
         <v>0.92049939689720484</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>3</v>
       </c>
@@ -6065,7 +6179,7 @@
         <v>1.0150991878864666</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>4</v>
       </c>
@@ -6091,7 +6205,7 @@
         <v>1.0233535393222091</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -6111,7 +6225,7 @@
         <v>3371.8194558417358</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -6128,7 +6242,7 @@
         <v>862.8</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>0.9935528043016657</v>
       </c>
@@ -6142,7 +6256,7 @@
         <v>0.98435945914674405</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -6153,7 +6267,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -6200,7 +6314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6259,7 +6373,7 @@
         <v>2.3742991622594198</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2</v>
       </c>
@@ -6318,7 +6432,7 @@
         <v>9.669089985966826</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>3</v>
       </c>
@@ -6377,7 +6491,7 @@
         <v>18.264017569181277</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>4</v>
       </c>
@@ -6436,7 +6550,7 @@
         <v>6.9965932825924781</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -6447,7 +6561,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -6494,7 +6608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1</v>
       </c>
@@ -6553,7 +6667,7 @@
         <v>2.3742991622594198</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>2</v>
       </c>
@@ -6612,7 +6726,7 @@
         <v>9.669089985966826</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>3</v>
       </c>
@@ -6671,7 +6785,7 @@
         <v>18.264017569181277</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>4</v>
       </c>
@@ -6730,7 +6844,7 @@
         <v>6.9965932825924781</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -6741,7 +6855,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -6788,7 +6902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1</v>
       </c>
@@ -6847,7 +6961,7 @@
         <v>4.7485983245188397</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>2</v>
       </c>
@@ -6906,7 +7020,7 @@
         <v>19.338179971933652</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>3</v>
       </c>
@@ -6965,7 +7079,7 @@
         <v>36.528035138362554</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>4</v>
       </c>
@@ -7024,7 +7138,7 @@
         <v>13.993186565184956</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E40">
         <f>SUM(B36:E39)</f>
         <v>1077.7199999999996</v>
@@ -7038,7 +7152,7 @@
         <v>287.39199999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -7049,7 +7163,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -7096,7 +7210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>1</v>
       </c>
@@ -7155,7 +7269,7 @@
         <v>7.1228974867782595</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>2</v>
       </c>
@@ -7214,7 +7328,7 @@
         <v>29.007269957900476</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>3</v>
       </c>
@@ -7273,7 +7387,7 @@
         <v>54.792052707543832</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>4</v>
       </c>
@@ -7332,7 +7446,7 @@
         <v>20.989779847777434</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -7343,7 +7457,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -7390,7 +7504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>1</v>
       </c>
@@ -7449,7 +7563,7 @@
         <v>7.1228974867782595</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>2</v>
       </c>
@@ -7508,7 +7622,7 @@
         <v>29.007269957900476</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>3</v>
       </c>
@@ -7567,7 +7681,7 @@
         <v>54.792052707543832</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>4</v>
       </c>
@@ -7626,7 +7740,7 @@
         <v>20.989779847777434</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -7637,7 +7751,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -7684,7 +7798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>1</v>
       </c>
@@ -7743,7 +7857,7 @@
         <v>14.245794973556519</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>2</v>
       </c>
@@ -7802,7 +7916,7 @@
         <v>58.014539915800952</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>3</v>
       </c>
@@ -7861,7 +7975,7 @@
         <v>109.58410541508766</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>4</v>
       </c>
@@ -7920,7 +8034,7 @@
         <v>41.979559695554869</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E62">
         <f>SUM(B58:E61)</f>
         <v>1185.492</v>
@@ -7934,7 +8048,7 @@
         <v>862.17599999999982</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -7945,7 +8059,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -7992,7 +8106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>1</v>
       </c>
@@ -8051,7 +8165,7 @@
         <v>20.181542879205068</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>2</v>
       </c>
@@ -8110,7 +8224,7 @@
         <v>82.187264880718033</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>3</v>
       </c>
@@ -8169,7 +8283,7 @@
         <v>155.24414933804087</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>4</v>
       </c>
@@ -8228,7 +8342,7 @@
         <v>59.471042902036068</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -8239,7 +8353,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -8286,7 +8400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>1</v>
       </c>
@@ -8345,7 +8459,7 @@
         <v>20.181542879205068</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>2</v>
       </c>
@@ -8404,7 +8518,7 @@
         <v>82.187264880718033</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>3</v>
       </c>
@@ -8463,7 +8577,7 @@
         <v>155.24414933804087</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>4</v>
       </c>
@@ -8522,7 +8636,7 @@
         <v>59.471042902036068</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>52</v>
       </c>
@@ -8533,7 +8647,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -8580,7 +8694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>1</v>
       </c>
@@ -8639,7 +8753,7 @@
         <v>40.363085758410136</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>2</v>
       </c>
@@ -8698,7 +8812,7 @@
         <v>164.37452976143607</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>3</v>
       </c>
@@ -8757,7 +8871,7 @@
         <v>310.48829867608174</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>4</v>
       </c>
@@ -8816,7 +8930,7 @@
         <v>118.94208580407214</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E84">
         <f>SUM(B80:E83)</f>
         <v>1329.1880000000001</v>
@@ -8842,24 +8956,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40:J41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" customWidth="1"/>
+    <col min="8" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
@@ -8867,7 +8981,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -8899,7 +9013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8939,7 +9053,7 @@
         <v>17.807243716945649</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8979,7 +9093,7 @@
         <v>72.518174894751198</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9019,7 +9133,7 @@
         <v>136.98013176885959</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9059,7 +9173,7 @@
         <v>52.474449619443583</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -9067,7 +9181,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -9099,7 +9213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1</v>
       </c>
@@ -9131,7 +9245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2</v>
       </c>
@@ -9163,7 +9277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9195,7 +9309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>4</v>
       </c>
@@ -9227,7 +9341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -9235,7 +9349,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -9267,7 +9381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1</v>
       </c>
@@ -9307,7 +9421,7 @@
         <v>14.574652923874492</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>2</v>
       </c>
@@ -9347,7 +9461,7 @@
         <v>70.400743343071895</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>3</v>
       </c>
@@ -9387,7 +9501,7 @@
         <v>135.47959774770197</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>4</v>
       </c>
@@ -9427,7 +9541,7 @@
         <v>52.395754523005166</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -9437,7 +9551,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -9453,7 +9567,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -9485,7 +9599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1</v>
       </c>
@@ -9525,7 +9639,7 @@
         <v>3.2325907930711582</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>2</v>
       </c>
@@ -9565,7 +9679,7 @@
         <v>2.1174315516793083</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>3</v>
       </c>
@@ -9605,7 +9719,7 @@
         <v>1.5005340211576432</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>4</v>
       </c>
@@ -9645,7 +9759,7 @@
         <v>7.8695096438412132E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -9653,7 +9767,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -9685,25 +9799,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" s="5">
-        <f>B17/1.1</f>
-        <v>67.983074879419078</v>
+        <f>(B17+B24)/1.1</f>
+        <v>68.181818181818173</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" ref="C31:E31" si="16">C17/1.1</f>
-        <v>30.603639932164999</v>
+        <f t="shared" ref="C31:E31" si="16">(C17+C24)/1.1</f>
+        <v>34.090909090909086</v>
       </c>
       <c r="D31" s="5">
         <f t="shared" si="16"/>
-        <v>98.154025801850167</v>
+        <v>102.27272727272727</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="16"/>
-        <v>16.741383756764161</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -9725,7 +9839,7 @@
         <v>13.249684476249538</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>2</v>
       </c>
@@ -9765,7 +9879,7 @@
         <v>64.000675766428984</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>3</v>
       </c>
@@ -9805,7 +9919,7 @@
         <v>123.16327067972905</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>4</v>
       </c>
@@ -9845,10 +9959,10 @@
         <v>47.632504111822875</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="E35" s="5">
         <f>SUM(B31:E34)</f>
-        <v>880.70594696545425</v>
+        <v>892.22382259525591</v>
       </c>
       <c r="K35" s="5">
         <f>SUM(H31:K34)</f>
@@ -9859,4 +9973,2638 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9">
+        <v>18475.099999999999</v>
+      </c>
+      <c r="F9">
+        <f>E9/60</f>
+        <v>307.91833333333329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="9">
+        <v>9.0527700000000004E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>23.1159</v>
+      </c>
+      <c r="D14">
+        <v>1.5410600000000001</v>
+      </c>
+      <c r="E14">
+        <v>21.742599999999999</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>2.5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H33" si="0">C14*2*G14</f>
+        <v>115.5795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>91.954599999999999</v>
+      </c>
+      <c r="D15">
+        <v>1.5325800000000001</v>
+      </c>
+      <c r="E15">
+        <v>55.113100000000003</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>6.5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1195.4097999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>21.630400000000002</v>
+      </c>
+      <c r="D16">
+        <v>1.4420299999999999</v>
+      </c>
+      <c r="E16">
+        <v>38.975000000000001</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>259.56479999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>42.414999999999999</v>
+      </c>
+      <c r="D17">
+        <v>1.4138299999999999</v>
+      </c>
+      <c r="E17">
+        <v>32.964500000000001</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>5.5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>466.565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>60.970300000000002</v>
+      </c>
+      <c r="D18">
+        <v>1.3549</v>
+      </c>
+      <c r="E18">
+        <v>22.9193</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>4.5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>548.73270000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>20.172999999999998</v>
+      </c>
+      <c r="D19">
+        <v>1.34487</v>
+      </c>
+      <c r="E19">
+        <v>29.7499</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>242.07599999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>39.712299999999999</v>
+      </c>
+      <c r="D20">
+        <v>1.3237399999999999</v>
+      </c>
+      <c r="E20">
+        <v>16.415800000000001</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>3.5</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>277.98609999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>78.674099999999996</v>
+      </c>
+      <c r="D21">
+        <v>1.3112299999999999</v>
+      </c>
+      <c r="E21">
+        <v>20.435700000000001</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>4.5</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>708.06689999999992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>38.826999999999998</v>
+      </c>
+      <c r="D22">
+        <v>1.29423</v>
+      </c>
+      <c r="E22">
+        <v>23.924299999999999</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>5.5</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>427.09699999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>31.171900000000001</v>
+      </c>
+      <c r="D23">
+        <v>1.24688</v>
+      </c>
+      <c r="E23">
+        <v>23.273499999999999</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>374.06280000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>54</v>
+      </c>
+      <c r="D24">
+        <v>1.2</v>
+      </c>
+      <c r="E24">
+        <v>22.7044</v>
+      </c>
+      <c r="F24">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>6.5</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>45.711100000000002</v>
+      </c>
+      <c r="D25">
+        <v>1.0158</v>
+      </c>
+      <c r="E25">
+        <v>16.570599999999999</v>
+      </c>
+      <c r="F25">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>6.5</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>594.24430000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>83.1541</v>
+      </c>
+      <c r="D26">
+        <v>0.92393400000000003</v>
+      </c>
+      <c r="E26">
+        <v>6.9331199999999997</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>498.9246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>40.246600000000001</v>
+      </c>
+      <c r="D27">
+        <v>0.89437</v>
+      </c>
+      <c r="E27">
+        <v>13.535399999999999</v>
+      </c>
+      <c r="F27">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>482.95920000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>76.783100000000005</v>
+      </c>
+      <c r="D28">
+        <v>0.85314500000000004</v>
+      </c>
+      <c r="E28">
+        <v>6.5784000000000002</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>460.69860000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>45.9619</v>
+      </c>
+      <c r="D29">
+        <v>0.76603200000000005</v>
+      </c>
+      <c r="E29">
+        <v>13.656700000000001</v>
+      </c>
+      <c r="F29">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>6.5</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>597.50469999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>33.448799999999999</v>
+      </c>
+      <c r="D30">
+        <v>0.37165300000000001</v>
+      </c>
+      <c r="E30">
+        <v>5.0032899999999998</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>2.5</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>167.244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>28.304600000000001</v>
+      </c>
+      <c r="D31">
+        <v>0.31449500000000002</v>
+      </c>
+      <c r="E31">
+        <v>7.00169</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>3.5</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>198.13220000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>15.7613</v>
+      </c>
+      <c r="D32">
+        <v>0.175126</v>
+      </c>
+      <c r="E32">
+        <v>6.0000400000000003</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>94.567800000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>9.0163899999999995</v>
+      </c>
+      <c r="D33">
+        <v>0.10018199999999999</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>54.098339999999993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35">
+        <f>SUM(H14:H33)/F9</f>
+        <v>27.492725906760999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>2015</v>
+      </c>
+      <c r="B39">
+        <v>8465.5143400000015</v>
+      </c>
+      <c r="C39">
+        <v>18475.099999999999</v>
+      </c>
+      <c r="D39">
+        <v>27.492725906760999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>2025</v>
+      </c>
+      <c r="B40">
+        <v>8639.7679859999989</v>
+      </c>
+      <c r="C40">
+        <v>23394</v>
+      </c>
+      <c r="D40">
+        <v>22.158933023852267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9">
+        <v>23394</v>
+      </c>
+      <c r="F9">
+        <f>E9/60</f>
+        <v>389.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="9">
+        <v>9.47905E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>25.511099999999999</v>
+      </c>
+      <c r="D14">
+        <v>1.7007399999999999</v>
+      </c>
+      <c r="E14">
+        <v>35.250999999999998</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>2.5</v>
+      </c>
+      <c r="H14">
+        <f>C14*2*G14</f>
+        <v>127.55549999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>50.6661</v>
+      </c>
+      <c r="D15">
+        <v>1.6888700000000001</v>
+      </c>
+      <c r="E15">
+        <v>74.812899999999999</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>5.5</v>
+      </c>
+      <c r="H15">
+        <f>C15*2*G15</f>
+        <v>557.32709999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>25.296500000000002</v>
+      </c>
+      <c r="D16">
+        <v>1.6864399999999999</v>
+      </c>
+      <c r="E16">
+        <v>81.014300000000006</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <f>C16*2*G16</f>
+        <v>303.55799999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>72.037400000000005</v>
+      </c>
+      <c r="D17">
+        <v>1.60083</v>
+      </c>
+      <c r="E17">
+        <v>67.696100000000001</v>
+      </c>
+      <c r="F17">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>6.5</v>
+      </c>
+      <c r="H17">
+        <f>C17*2*G17</f>
+        <v>936.48620000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>45.995100000000001</v>
+      </c>
+      <c r="D18">
+        <v>1.5331699999999999</v>
+      </c>
+      <c r="E18">
+        <v>29.7288</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>3.5</v>
+      </c>
+      <c r="H18">
+        <f>C18*2*G18</f>
+        <v>321.96570000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>35.4938</v>
+      </c>
+      <c r="D19">
+        <v>1.4197500000000001</v>
+      </c>
+      <c r="E19">
+        <v>36.569600000000001</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <f>C19*2*G19</f>
+        <v>425.92560000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>80.621700000000004</v>
+      </c>
+      <c r="D20">
+        <v>1.3436900000000001</v>
+      </c>
+      <c r="E20">
+        <v>22.242999999999999</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>4.5</v>
+      </c>
+      <c r="H20">
+        <f>C20*2*G20</f>
+        <v>725.59530000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>59.3643</v>
+      </c>
+      <c r="D21">
+        <v>1.31921</v>
+      </c>
+      <c r="E21">
+        <v>20.859300000000001</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>4.5</v>
+      </c>
+      <c r="H21">
+        <f>C21*2*G21</f>
+        <v>534.27869999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>74</v>
+      </c>
+      <c r="D22">
+        <v>1.23333</v>
+      </c>
+      <c r="E22">
+        <v>24.438400000000001</v>
+      </c>
+      <c r="F22">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>6.5</v>
+      </c>
+      <c r="H22">
+        <f>C22*2*G22</f>
+        <v>962</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>88.524699999999996</v>
+      </c>
+      <c r="D23">
+        <v>0.98360800000000004</v>
+      </c>
+      <c r="E23">
+        <v>7.3583800000000004</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <f>C23*2*G23</f>
+        <v>531.14819999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>43.183999999999997</v>
+      </c>
+      <c r="D24">
+        <v>0.95964400000000005</v>
+      </c>
+      <c r="E24">
+        <v>14.3431</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <f>C24*2*G24</f>
+        <v>518.20799999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>57.079300000000003</v>
+      </c>
+      <c r="D25">
+        <v>0.95132099999999997</v>
+      </c>
+      <c r="E25">
+        <v>15.4091</v>
+      </c>
+      <c r="F25">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>6.5</v>
+      </c>
+      <c r="H25">
+        <f>C25*2*G25</f>
+        <v>742.03090000000009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>28</v>
+      </c>
+      <c r="D26">
+        <v>0.93333299999999997</v>
+      </c>
+      <c r="E26">
+        <v>12.8178</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>5.5</v>
+      </c>
+      <c r="H26">
+        <f>C26*2*G26</f>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>83.957499999999996</v>
+      </c>
+      <c r="D27">
+        <v>0.93286100000000005</v>
+      </c>
+      <c r="E27">
+        <v>6.9885299999999999</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <f>C27*2*G27</f>
+        <v>503.745</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>0.86666699999999997</v>
+      </c>
+      <c r="E28">
+        <v>13.2713</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <f>C28*2*G28</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>33.374099999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.74164600000000003</v>
+      </c>
+      <c r="E29">
+        <v>13.540800000000001</v>
+      </c>
+      <c r="F29">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>6.5</v>
+      </c>
+      <c r="H29">
+        <f>C29*2*G29</f>
+        <v>433.86329999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>36.816000000000003</v>
+      </c>
+      <c r="D30">
+        <v>0.40906700000000001</v>
+      </c>
+      <c r="E30">
+        <v>7.0082000000000004</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>3.5</v>
+      </c>
+      <c r="H30">
+        <f>C30*2*G30</f>
+        <v>257.71199999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31">
+        <v>0.31111100000000003</v>
+      </c>
+      <c r="E31">
+        <v>5.0011299999999999</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>2.5</v>
+      </c>
+      <c r="H31">
+        <f>C31*2*G31</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>25.441500000000001</v>
+      </c>
+      <c r="D32">
+        <v>0.28268399999999999</v>
+      </c>
+      <c r="E32">
+        <v>6.0007700000000002</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <f>C32*2*G32</f>
+        <v>152.649</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>0.28658099999999997</v>
+      </c>
+      <c r="D33">
+        <v>3.1842400000000001E-3</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <f>C33*2*G33</f>
+        <v>1.7194859999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35">
+        <f>SUM(H14:H33)/F9</f>
+        <v>22.158933023852267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9">
+        <v>18004.7</v>
+      </c>
+      <c r="F9">
+        <f>E9/60</f>
+        <v>300.07833333333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="9">
+        <v>8.5300299999999994E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>91.980999999999995</v>
+      </c>
+      <c r="D14">
+        <v>1.53302</v>
+      </c>
+      <c r="E14">
+        <v>55.185600000000001</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>2.5</v>
+      </c>
+      <c r="H14">
+        <f>C14*2*G14</f>
+        <v>459.90499999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>21.638300000000001</v>
+      </c>
+      <c r="D15">
+        <v>1.44255</v>
+      </c>
+      <c r="E15">
+        <v>39.034100000000002</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H33" si="0">C15*2*G15</f>
+        <v>259.65960000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>42.380699999999997</v>
+      </c>
+      <c r="D16">
+        <v>1.41269</v>
+      </c>
+      <c r="E16">
+        <v>32.858199999999997</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>5.5</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>466.18769999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>61.004600000000003</v>
+      </c>
+      <c r="D17">
+        <v>1.3556600000000001</v>
+      </c>
+      <c r="E17">
+        <v>22.9663</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>732.05520000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>20.175999999999998</v>
+      </c>
+      <c r="D18">
+        <v>1.34507</v>
+      </c>
+      <c r="E18">
+        <v>29.765899999999998</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>6.5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>262.28799999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>78.759200000000007</v>
+      </c>
+      <c r="D19">
+        <v>1.3126500000000001</v>
+      </c>
+      <c r="E19">
+        <v>20.510200000000001</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>4.5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>708.83280000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>38.823999999999998</v>
+      </c>
+      <c r="D20">
+        <v>1.29413</v>
+      </c>
+      <c r="E20">
+        <v>23.918299999999999</v>
+      </c>
+      <c r="F20">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>5.5</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>427.06399999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>37.772300000000001</v>
+      </c>
+      <c r="D21">
+        <v>1.25908</v>
+      </c>
+      <c r="E21">
+        <v>13.9719</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>453.26760000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>30.047799999999999</v>
+      </c>
+      <c r="D22">
+        <v>1.20191</v>
+      </c>
+      <c r="E22">
+        <v>21.043900000000001</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>6.5</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>390.62139999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>54</v>
+      </c>
+      <c r="D23">
+        <v>1.2</v>
+      </c>
+      <c r="E23">
+        <v>22.7044</v>
+      </c>
+      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>4.5</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>26.1799</v>
+      </c>
+      <c r="D24">
+        <v>1.1635500000000001</v>
+      </c>
+      <c r="E24">
+        <v>8.1018899999999991</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>3.5</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>183.2593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>45.736499999999999</v>
+      </c>
+      <c r="D25">
+        <v>1.01637</v>
+      </c>
+      <c r="E25">
+        <v>16.5825</v>
+      </c>
+      <c r="F25">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>2.5</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>228.6825</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>84.192999999999998</v>
+      </c>
+      <c r="D26">
+        <v>0.935477</v>
+      </c>
+      <c r="E26">
+        <v>7.0052899999999996</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>505.15800000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>40.332000000000001</v>
+      </c>
+      <c r="D27">
+        <v>0.89626600000000001</v>
+      </c>
+      <c r="E27">
+        <v>13.555</v>
+      </c>
+      <c r="F27">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>241.99200000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>76.663499999999999</v>
+      </c>
+      <c r="D28">
+        <v>0.85181600000000002</v>
+      </c>
+      <c r="E28">
+        <v>6.5730199999999996</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>6.5</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>996.62549999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>45.962800000000001</v>
+      </c>
+      <c r="D29">
+        <v>0.766046</v>
+      </c>
+      <c r="E29">
+        <v>13.6568</v>
+      </c>
+      <c r="F29">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>6.5</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>597.51639999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>33.375900000000001</v>
+      </c>
+      <c r="D30">
+        <v>0.37084400000000001</v>
+      </c>
+      <c r="E30">
+        <v>5.0032500000000004</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>200.25540000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>28.292100000000001</v>
+      </c>
+      <c r="D31">
+        <v>0.314357</v>
+      </c>
+      <c r="E31">
+        <v>7.00169</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>3.5</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>198.04470000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>14.824</v>
+      </c>
+      <c r="D32">
+        <v>0.164711</v>
+      </c>
+      <c r="E32">
+        <v>6.0000299999999998</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>88.944000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>11.184699999999999</v>
+      </c>
+      <c r="D33">
+        <v>0.124275</v>
+      </c>
+      <c r="E33">
+        <v>6.0000099999999996</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>134.21639999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35">
+        <f>SUM(H14:H33)/F9</f>
+        <v>26.728272617705382</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9">
+        <v>17867.599999999999</v>
+      </c>
+      <c r="F9">
+        <f>E9/60</f>
+        <v>297.79333333333329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="9">
+        <v>9.08256E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>91.977000000000004</v>
+      </c>
+      <c r="D14">
+        <v>1.53295</v>
+      </c>
+      <c r="E14">
+        <v>55.174700000000001</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>2.5</v>
+      </c>
+      <c r="H14">
+        <f>C14*2*G14</f>
+        <v>459.88499999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>42.396599999999999</v>
+      </c>
+      <c r="D15">
+        <v>1.4132199999999999</v>
+      </c>
+      <c r="E15">
+        <v>32.907299999999999</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>5.5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H33" si="0">C15*2*G15</f>
+        <v>466.36259999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>21.6264</v>
+      </c>
+      <c r="D16">
+        <v>1.4417599999999999</v>
+      </c>
+      <c r="E16">
+        <v>38.945099999999996</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>259.51679999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>26.574100000000001</v>
+      </c>
+      <c r="D17">
+        <v>1.0629599999999999</v>
+      </c>
+      <c r="E17">
+        <v>16.327400000000001</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>6.5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>345.4633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>21.112500000000001</v>
+      </c>
+      <c r="D18">
+        <v>1.4075</v>
+      </c>
+      <c r="E18">
+        <v>14.718400000000001</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>3.5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>147.78749999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>46.313499999999998</v>
+      </c>
+      <c r="D19">
+        <v>1.02919</v>
+      </c>
+      <c r="E19">
+        <v>9.0797299999999996</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>555.76199999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>54</v>
+      </c>
+      <c r="D20">
+        <v>1.2</v>
+      </c>
+      <c r="E20">
+        <v>22.7044</v>
+      </c>
+      <c r="F20">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>4.5</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>79.015500000000003</v>
+      </c>
+      <c r="D21">
+        <v>1.3169200000000001</v>
+      </c>
+      <c r="E21">
+        <v>20.736799999999999</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>4.5</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>711.1395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>45.649099999999997</v>
+      </c>
+      <c r="D22">
+        <v>0.76081799999999999</v>
+      </c>
+      <c r="E22">
+        <v>13.6303</v>
+      </c>
+      <c r="F22">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>6.5</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>593.43829999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>40.396999999999998</v>
+      </c>
+      <c r="D23">
+        <v>0.89771199999999995</v>
+      </c>
+      <c r="E23">
+        <v>13.5702</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>242.38200000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>61.102400000000003</v>
+      </c>
+      <c r="D24">
+        <v>1.3578300000000001</v>
+      </c>
+      <c r="E24">
+        <v>23.101299999999998</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>733.22880000000009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>76.500500000000002</v>
+      </c>
+      <c r="D25">
+        <v>0.85000600000000004</v>
+      </c>
+      <c r="E25">
+        <v>6.5657500000000004</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>6.5</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>994.50650000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>38.807499999999997</v>
+      </c>
+      <c r="D26">
+        <v>1.29358</v>
+      </c>
+      <c r="E26">
+        <v>23.885400000000001</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>5.5</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>426.88249999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>33.427199999999999</v>
+      </c>
+      <c r="D27">
+        <v>0.37141299999999999</v>
+      </c>
+      <c r="E27">
+        <v>5.0032800000000002</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>200.56319999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>8.9694099999999999</v>
+      </c>
+      <c r="D28">
+        <v>9.9660100000000001E-2</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>107.63292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>20.192499999999999</v>
+      </c>
+      <c r="D29">
+        <v>1.3461700000000001</v>
+      </c>
+      <c r="E29">
+        <v>29.853100000000001</v>
+      </c>
+      <c r="F29">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>6.5</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>262.5025</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>28.175799999999999</v>
+      </c>
+      <c r="D30">
+        <v>0.31306400000000001</v>
+      </c>
+      <c r="E30">
+        <v>7.0016499999999997</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>3.5</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>197.23059999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>45.585099999999997</v>
+      </c>
+      <c r="D31">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="E31">
+        <v>16.511900000000001</v>
+      </c>
+      <c r="F31">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>2.5</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>227.9255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>87.410399999999996</v>
+      </c>
+      <c r="D32">
+        <v>0.97122699999999995</v>
+      </c>
+      <c r="E32">
+        <v>7.2589699999999997</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>524.4624</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>17.695</v>
+      </c>
+      <c r="D33">
+        <v>0.19661200000000001</v>
+      </c>
+      <c r="E33">
+        <v>6.0000900000000001</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>106.17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H34">
+        <f>SUM(H14:H33)</f>
+        <v>8048.8419199999989</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35">
+        <f>SUM(H14:H33)/F9</f>
+        <v>27.028281089793818</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HW5/HW5_data_files/HW5_calculations_v2.xlsx
+++ b/HW5/HW5_data_files/HW5_calculations_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Prod_Attr" sheetId="1" r:id="rId1"/>
@@ -12,17 +12,15 @@
     <sheet name="OD_convert 2015" sheetId="3" r:id="rId3"/>
     <sheet name="OD_convert 2025" sheetId="4" r:id="rId4"/>
     <sheet name="Mode Share" sheetId="5" r:id="rId5"/>
-    <sheet name="TrafAsmtUE_2015" sheetId="10" r:id="rId6"/>
-    <sheet name="TrafAsmtUE_2025" sheetId="7" r:id="rId7"/>
-    <sheet name="TrafAsmtUE_2-5" sheetId="8" r:id="rId8"/>
-    <sheet name="TrafAsmtUE_2-6" sheetId="9" r:id="rId9"/>
+    <sheet name="TrafAsmtUE_2015" sheetId="11" r:id="rId6"/>
+    <sheet name="TrafAsmtUE_2025" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="110">
   <si>
     <t>---------------</t>
   </si>
@@ -342,9 +340,6 @@
     <t>Avg Spd</t>
   </si>
   <si>
-    <t>avg spd</t>
-  </si>
-  <si>
     <t>AVG Spd</t>
   </si>
   <si>
@@ -408,14 +403,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,22 +732,22 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
@@ -761,22 +756,22 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -788,22 +783,22 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D6">
@@ -1257,18 +1252,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1278,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -2883,15 +2878,15 @@
       <c r="A66">
         <v>2015</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="6">
         <f>SUM(B10:E13)</f>
         <v>3375</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="6">
         <f>B23</f>
         <v>34445</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="6">
         <f>B24</f>
         <v>10.205925925925927</v>
       </c>
@@ -2907,15 +2902,15 @@
       <c r="A67">
         <v>2025</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="6">
         <f>SUM(L50:O53)</f>
         <v>3592.3999999999996</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="6">
         <f>L65</f>
         <v>36781.818163954791</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="6">
         <f>L66</f>
         <v>10.238786929059902</v>
       </c>
@@ -2946,22 +2941,22 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="9"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
@@ -5927,22 +5922,22 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="9"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
@@ -8960,7 +8955,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -9979,8 +9974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -10042,7 +10037,7 @@
       <c r="A11" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>9.0527700000000004E-5</v>
       </c>
     </row>
@@ -10614,7 +10609,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B35">
         <f>SUM(H14:H33)/F9</f>
@@ -10623,13 +10618,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
         <v>108</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>109</v>
-      </c>
-      <c r="D38" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -10670,7 +10665,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -10727,7 +10722,7 @@
       <c r="A11" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>9.47905E-5</v>
       </c>
     </row>
@@ -10759,100 +10754,100 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>25.511099999999999</v>
+        <v>88.524699999999996</v>
       </c>
       <c r="D14">
-        <v>1.7007399999999999</v>
+        <v>0.98360800000000004</v>
       </c>
       <c r="E14">
-        <v>35.250999999999998</v>
+        <v>7.3583800000000004</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <f>C14*2*G14</f>
-        <v>127.55549999999999</v>
+        <f t="shared" ref="H14:H33" si="0">C14*2*G14</f>
+        <v>531.14819999999997</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>50.6661</v>
+        <v>83.957499999999996</v>
       </c>
       <c r="D15">
-        <v>1.6888700000000001</v>
+        <v>0.93286100000000005</v>
       </c>
       <c r="E15">
-        <v>74.812899999999999</v>
+        <v>6.9885299999999999</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <f>C15*2*G15</f>
-        <v>557.32709999999997</v>
+        <f t="shared" si="0"/>
+        <v>503.745</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>25.296500000000002</v>
+        <v>80.621700000000004</v>
       </c>
       <c r="D16">
-        <v>1.6864399999999999</v>
+        <v>1.3436900000000001</v>
       </c>
       <c r="E16">
-        <v>81.014300000000006</v>
+        <v>22.242999999999999</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="H16">
-        <f>C16*2*G16</f>
-        <v>303.55799999999999</v>
+        <f t="shared" si="0"/>
+        <v>725.59530000000007</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>72.037400000000005</v>
+        <v>74</v>
       </c>
       <c r="D17">
-        <v>1.60083</v>
+        <v>1.23333</v>
       </c>
       <c r="E17">
-        <v>67.696100000000001</v>
+        <v>24.438400000000001</v>
       </c>
       <c r="F17">
         <v>13</v>
@@ -10861,62 +10856,62 @@
         <v>6.5</v>
       </c>
       <c r="H17">
-        <f>C17*2*G17</f>
-        <v>936.48620000000005</v>
+        <f t="shared" si="0"/>
+        <v>962</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>45.995100000000001</v>
+        <v>72.037400000000005</v>
       </c>
       <c r="D18">
-        <v>1.5331699999999999</v>
+        <v>1.60083</v>
       </c>
       <c r="E18">
-        <v>29.7288</v>
+        <v>67.696100000000001</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G18">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H18">
-        <f>C18*2*G18</f>
-        <v>321.96570000000003</v>
+        <f t="shared" si="0"/>
+        <v>936.48620000000005</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>35.4938</v>
+        <v>59.3643</v>
       </c>
       <c r="D19">
-        <v>1.4197500000000001</v>
+        <v>1.31921</v>
       </c>
       <c r="E19">
-        <v>36.569600000000001</v>
+        <v>20.859300000000001</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="H19">
-        <f>C19*2*G19</f>
-        <v>425.92560000000003</v>
+        <f t="shared" si="0"/>
+        <v>534.27869999999996</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -10924,80 +10919,80 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>80.621700000000004</v>
+        <v>57.079300000000003</v>
       </c>
       <c r="D20">
-        <v>1.3436900000000001</v>
+        <v>0.95132099999999997</v>
       </c>
       <c r="E20">
-        <v>22.242999999999999</v>
+        <v>15.4091</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G20">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="H20">
-        <f>C20*2*G20</f>
-        <v>725.59530000000007</v>
+        <f t="shared" si="0"/>
+        <v>742.03090000000009</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>59.3643</v>
+        <v>50.6661</v>
       </c>
       <c r="D21">
-        <v>1.31921</v>
+        <v>1.6888700000000001</v>
       </c>
       <c r="E21">
-        <v>20.859300000000001</v>
+        <v>74.812899999999999</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G21">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="H21">
-        <f>C21*2*G21</f>
-        <v>534.27869999999996</v>
+        <f t="shared" si="0"/>
+        <v>557.32709999999997</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>74</v>
+        <v>45.995100000000001</v>
       </c>
       <c r="D22">
-        <v>1.23333</v>
+        <v>1.5331699999999999</v>
       </c>
       <c r="E22">
-        <v>24.438400000000001</v>
+        <v>29.7288</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="H22">
-        <f>C22*2*G22</f>
-        <v>962</v>
+        <f t="shared" si="0"/>
+        <v>321.96570000000003</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -11005,188 +11000,188 @@
         <v>4</v>
       </c>
       <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>43.183999999999997</v>
+      </c>
+      <c r="D23">
+        <v>0.95964400000000005</v>
+      </c>
+      <c r="E23">
+        <v>14.3431</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23">
         <v>6</v>
       </c>
-      <c r="C23">
-        <v>88.524699999999996</v>
-      </c>
-      <c r="D23">
-        <v>0.98360800000000004</v>
-      </c>
-      <c r="E23">
-        <v>7.3583800000000004</v>
-      </c>
-      <c r="F23">
-        <v>6</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
       <c r="H23">
-        <f>C23*2*G23</f>
-        <v>531.14819999999997</v>
+        <f t="shared" si="0"/>
+        <v>518.20799999999997</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24">
-        <v>43.183999999999997</v>
+        <v>36.816000000000003</v>
       </c>
       <c r="D24">
-        <v>0.95964400000000005</v>
+        <v>0.40906700000000001</v>
       </c>
       <c r="E24">
-        <v>14.3431</v>
+        <v>7.0082000000000004</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="H24">
-        <f>C24*2*G24</f>
-        <v>518.20799999999997</v>
+        <f t="shared" si="0"/>
+        <v>257.71199999999999</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>35.4938</v>
+      </c>
+      <c r="D25">
+        <v>1.4197500000000001</v>
+      </c>
+      <c r="E25">
+        <v>36.569600000000001</v>
+      </c>
+      <c r="F25">
+        <v>12</v>
+      </c>
+      <c r="G25">
         <v>6</v>
       </c>
-      <c r="C25">
-        <v>57.079300000000003</v>
-      </c>
-      <c r="D25">
-        <v>0.95132099999999997</v>
-      </c>
-      <c r="E25">
-        <v>15.4091</v>
-      </c>
-      <c r="F25">
-        <v>13</v>
-      </c>
-      <c r="G25">
-        <v>6.5</v>
-      </c>
       <c r="H25">
-        <f>C25*2*G25</f>
-        <v>742.03090000000009</v>
+        <f t="shared" si="0"/>
+        <v>425.92560000000003</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>33.374099999999999</v>
       </c>
       <c r="D26">
-        <v>0.93333299999999997</v>
+        <v>0.74164600000000003</v>
       </c>
       <c r="E26">
-        <v>12.8178</v>
+        <v>13.540800000000001</v>
       </c>
       <c r="F26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G26">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="H26">
-        <f>C26*2*G26</f>
-        <v>308</v>
+        <f t="shared" si="0"/>
+        <v>433.86329999999998</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>83.957499999999996</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>0.93286100000000005</v>
+        <v>0.93333299999999997</v>
       </c>
       <c r="E27">
-        <v>6.9885299999999999</v>
+        <v>12.8178</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H27">
-        <f>C27*2*G27</f>
-        <v>503.745</v>
+        <f t="shared" si="0"/>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>0.86666699999999997</v>
+        <v>0.31111100000000003</v>
       </c>
       <c r="E28">
-        <v>13.2713</v>
+        <v>5.0011299999999999</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="H28">
-        <f>C28*2*G28</f>
-        <v>156</v>
+        <f t="shared" si="0"/>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>33.374099999999999</v>
+        <v>25.511099999999999</v>
       </c>
       <c r="D29">
-        <v>0.74164600000000003</v>
+        <v>1.7007399999999999</v>
       </c>
       <c r="E29">
-        <v>13.540800000000001</v>
+        <v>35.250999999999998</v>
       </c>
       <c r="F29">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="H29">
-        <f>C29*2*G29</f>
-        <v>433.86329999999998</v>
+        <f t="shared" si="0"/>
+        <v>127.55549999999999</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -11194,80 +11189,80 @@
         <v>6</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>36.816000000000003</v>
+        <v>25.441500000000001</v>
       </c>
       <c r="D30">
-        <v>0.40906700000000001</v>
+        <v>0.28268399999999999</v>
       </c>
       <c r="E30">
-        <v>7.0082000000000004</v>
+        <v>6.0007700000000002</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <f>C30*2*G30</f>
-        <v>257.71199999999999</v>
+        <f t="shared" si="0"/>
+        <v>152.649</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>25.296500000000002</v>
       </c>
       <c r="D31">
-        <v>0.31111100000000003</v>
+        <v>1.6864399999999999</v>
       </c>
       <c r="E31">
-        <v>5.0011299999999999</v>
+        <v>81.014300000000006</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G31">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="H31">
-        <f>C31*2*G31</f>
-        <v>140</v>
+        <f t="shared" si="0"/>
+        <v>303.55799999999999</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
         <v>6</v>
       </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
       <c r="C32">
-        <v>25.441500000000001</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>0.28268399999999999</v>
+        <v>0.86666699999999997</v>
       </c>
       <c r="E32">
-        <v>6.0007700000000002</v>
+        <v>13.2713</v>
       </c>
       <c r="F32">
+        <v>12</v>
+      </c>
+      <c r="G32">
         <v>6</v>
       </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
       <c r="H32">
-        <f>C32*2*G32</f>
-        <v>152.649</v>
+        <f t="shared" si="0"/>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -11293,7 +11288,7 @@
         <v>3</v>
       </c>
       <c r="H33">
-        <f>C33*2*G33</f>
+        <f t="shared" si="0"/>
         <v>1.7194859999999998</v>
       </c>
     </row>
@@ -11303,1305 +11298,7 @@
       </c>
       <c r="B35">
         <f>SUM(H14:H33)/F9</f>
-        <v>22.158933023852267</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9">
-        <v>18004.7</v>
-      </c>
-      <c r="F9">
-        <f>E9/60</f>
-        <v>300.07833333333332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="9">
-        <v>8.5300299999999994E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>91.980999999999995</v>
-      </c>
-      <c r="D14">
-        <v>1.53302</v>
-      </c>
-      <c r="E14">
-        <v>55.185600000000001</v>
-      </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
-      <c r="G14">
-        <v>2.5</v>
-      </c>
-      <c r="H14">
-        <f>C14*2*G14</f>
-        <v>459.90499999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>21.638300000000001</v>
-      </c>
-      <c r="D15">
-        <v>1.44255</v>
-      </c>
-      <c r="E15">
-        <v>39.034100000000002</v>
-      </c>
-      <c r="F15">
-        <v>12</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ref="H15:H33" si="0">C15*2*G15</f>
-        <v>259.65960000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>42.380699999999997</v>
-      </c>
-      <c r="D16">
-        <v>1.41269</v>
-      </c>
-      <c r="E16">
-        <v>32.858199999999997</v>
-      </c>
-      <c r="F16">
-        <v>11</v>
-      </c>
-      <c r="G16">
-        <v>5.5</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>466.18769999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>61.004600000000003</v>
-      </c>
-      <c r="D17">
-        <v>1.3556600000000001</v>
-      </c>
-      <c r="E17">
-        <v>22.9663</v>
-      </c>
-      <c r="F17">
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <v>6</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>732.05520000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>20.175999999999998</v>
-      </c>
-      <c r="D18">
-        <v>1.34507</v>
-      </c>
-      <c r="E18">
-        <v>29.765899999999998</v>
-      </c>
-      <c r="F18">
-        <v>12</v>
-      </c>
-      <c r="G18">
-        <v>6.5</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>262.28799999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>78.759200000000007</v>
-      </c>
-      <c r="D19">
-        <v>1.3126500000000001</v>
-      </c>
-      <c r="E19">
-        <v>20.510200000000001</v>
-      </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>4.5</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>708.83280000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>38.823999999999998</v>
-      </c>
-      <c r="D20">
-        <v>1.29413</v>
-      </c>
-      <c r="E20">
-        <v>23.918299999999999</v>
-      </c>
-      <c r="F20">
-        <v>11</v>
-      </c>
-      <c r="G20">
-        <v>5.5</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>427.06399999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>37.772300000000001</v>
-      </c>
-      <c r="D21">
-        <v>1.25908</v>
-      </c>
-      <c r="E21">
-        <v>13.9719</v>
-      </c>
-      <c r="F21">
-        <v>7</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>453.26760000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>30.047799999999999</v>
-      </c>
-      <c r="D22">
-        <v>1.20191</v>
-      </c>
-      <c r="E22">
-        <v>21.043900000000001</v>
-      </c>
-      <c r="F22">
-        <v>12</v>
-      </c>
-      <c r="G22">
-        <v>6.5</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>390.62139999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>54</v>
-      </c>
-      <c r="D23">
-        <v>1.2</v>
-      </c>
-      <c r="E23">
-        <v>22.7044</v>
-      </c>
-      <c r="F23">
-        <v>13</v>
-      </c>
-      <c r="G23">
-        <v>4.5</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>486</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>26.1799</v>
-      </c>
-      <c r="D24">
-        <v>1.1635500000000001</v>
-      </c>
-      <c r="E24">
-        <v>8.1018899999999991</v>
-      </c>
-      <c r="F24">
-        <v>5</v>
-      </c>
-      <c r="G24">
-        <v>3.5</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>183.2593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>45.736499999999999</v>
-      </c>
-      <c r="D25">
-        <v>1.01637</v>
-      </c>
-      <c r="E25">
-        <v>16.5825</v>
-      </c>
-      <c r="F25">
-        <v>13</v>
-      </c>
-      <c r="G25">
-        <v>2.5</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>228.6825</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>84.192999999999998</v>
-      </c>
-      <c r="D26">
-        <v>0.935477</v>
-      </c>
-      <c r="E26">
-        <v>7.0052899999999996</v>
-      </c>
-      <c r="F26">
-        <v>6</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>505.15800000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>40.332000000000001</v>
-      </c>
-      <c r="D27">
-        <v>0.89626600000000001</v>
-      </c>
-      <c r="E27">
-        <v>13.555</v>
-      </c>
-      <c r="F27">
-        <v>12</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>241.99200000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>6</v>
-      </c>
-      <c r="C28">
-        <v>76.663499999999999</v>
-      </c>
-      <c r="D28">
-        <v>0.85181600000000002</v>
-      </c>
-      <c r="E28">
-        <v>6.5730199999999996</v>
-      </c>
-      <c r="F28">
-        <v>6</v>
-      </c>
-      <c r="G28">
-        <v>6.5</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>996.62549999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29">
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>45.962800000000001</v>
-      </c>
-      <c r="D29">
-        <v>0.766046</v>
-      </c>
-      <c r="E29">
-        <v>13.6568</v>
-      </c>
-      <c r="F29">
-        <v>13</v>
-      </c>
-      <c r="G29">
-        <v>6.5</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>597.51639999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>33.375900000000001</v>
-      </c>
-      <c r="D30">
-        <v>0.37084400000000001</v>
-      </c>
-      <c r="E30">
-        <v>5.0032500000000004</v>
-      </c>
-      <c r="F30">
-        <v>5</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>200.25540000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <v>6</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>28.292100000000001</v>
-      </c>
-      <c r="D31">
-        <v>0.314357</v>
-      </c>
-      <c r="E31">
-        <v>7.00169</v>
-      </c>
-      <c r="F31">
-        <v>7</v>
-      </c>
-      <c r="G31">
-        <v>3.5</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>198.04470000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32">
-        <v>6</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <v>14.824</v>
-      </c>
-      <c r="D32">
-        <v>0.164711</v>
-      </c>
-      <c r="E32">
-        <v>6.0000299999999998</v>
-      </c>
-      <c r="F32">
-        <v>6</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>88.944000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33">
-        <v>11.184699999999999</v>
-      </c>
-      <c r="D33">
-        <v>0.124275</v>
-      </c>
-      <c r="E33">
-        <v>6.0000099999999996</v>
-      </c>
-      <c r="F33">
-        <v>6</v>
-      </c>
-      <c r="G33">
-        <v>6</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>134.21639999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35">
-        <f>SUM(H14:H33)/F9</f>
-        <v>26.728272617705382</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9">
-        <v>17867.599999999999</v>
-      </c>
-      <c r="F9">
-        <f>E9/60</f>
-        <v>297.79333333333329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="9">
-        <v>9.08256E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>91.977000000000004</v>
-      </c>
-      <c r="D14">
-        <v>1.53295</v>
-      </c>
-      <c r="E14">
-        <v>55.174700000000001</v>
-      </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
-      <c r="G14">
-        <v>2.5</v>
-      </c>
-      <c r="H14">
-        <f>C14*2*G14</f>
-        <v>459.88499999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>42.396599999999999</v>
-      </c>
-      <c r="D15">
-        <v>1.4132199999999999</v>
-      </c>
-      <c r="E15">
-        <v>32.907299999999999</v>
-      </c>
-      <c r="F15">
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <v>5.5</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ref="H15:H33" si="0">C15*2*G15</f>
-        <v>466.36259999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>21.6264</v>
-      </c>
-      <c r="D16">
-        <v>1.4417599999999999</v>
-      </c>
-      <c r="E16">
-        <v>38.945099999999996</v>
-      </c>
-      <c r="F16">
-        <v>12</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>259.51679999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>26.574100000000001</v>
-      </c>
-      <c r="D17">
-        <v>1.0629599999999999</v>
-      </c>
-      <c r="E17">
-        <v>16.327400000000001</v>
-      </c>
-      <c r="F17">
-        <v>12</v>
-      </c>
-      <c r="G17">
-        <v>6.5</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>345.4633</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>21.112500000000001</v>
-      </c>
-      <c r="D18">
-        <v>1.4075</v>
-      </c>
-      <c r="E18">
-        <v>14.718400000000001</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <v>3.5</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>147.78749999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>46.313499999999998</v>
-      </c>
-      <c r="D19">
-        <v>1.02919</v>
-      </c>
-      <c r="E19">
-        <v>9.0797299999999996</v>
-      </c>
-      <c r="F19">
-        <v>7</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>555.76199999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>54</v>
-      </c>
-      <c r="D20">
-        <v>1.2</v>
-      </c>
-      <c r="E20">
-        <v>22.7044</v>
-      </c>
-      <c r="F20">
-        <v>13</v>
-      </c>
-      <c r="G20">
-        <v>4.5</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>79.015500000000003</v>
-      </c>
-      <c r="D21">
-        <v>1.3169200000000001</v>
-      </c>
-      <c r="E21">
-        <v>20.736799999999999</v>
-      </c>
-      <c r="F21">
-        <v>9</v>
-      </c>
-      <c r="G21">
-        <v>4.5</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>711.1395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>45.649099999999997</v>
-      </c>
-      <c r="D22">
-        <v>0.76081799999999999</v>
-      </c>
-      <c r="E22">
-        <v>13.6303</v>
-      </c>
-      <c r="F22">
-        <v>13</v>
-      </c>
-      <c r="G22">
-        <v>6.5</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>593.43829999999991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>40.396999999999998</v>
-      </c>
-      <c r="D23">
-        <v>0.89771199999999995</v>
-      </c>
-      <c r="E23">
-        <v>13.5702</v>
-      </c>
-      <c r="F23">
-        <v>12</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>242.38200000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>61.102400000000003</v>
-      </c>
-      <c r="D24">
-        <v>1.3578300000000001</v>
-      </c>
-      <c r="E24">
-        <v>23.101299999999998</v>
-      </c>
-      <c r="F24">
-        <v>9</v>
-      </c>
-      <c r="G24">
-        <v>6</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>733.22880000000009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>76.500500000000002</v>
-      </c>
-      <c r="D25">
-        <v>0.85000600000000004</v>
-      </c>
-      <c r="E25">
-        <v>6.5657500000000004</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
-      </c>
-      <c r="G25">
-        <v>6.5</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>994.50650000000007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>38.807499999999997</v>
-      </c>
-      <c r="D26">
-        <v>1.29358</v>
-      </c>
-      <c r="E26">
-        <v>23.885400000000001</v>
-      </c>
-      <c r="F26">
-        <v>11</v>
-      </c>
-      <c r="G26">
-        <v>5.5</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>426.88249999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>33.427199999999999</v>
-      </c>
-      <c r="D27">
-        <v>0.37141299999999999</v>
-      </c>
-      <c r="E27">
-        <v>5.0032800000000002</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>200.56319999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28">
-        <v>5</v>
-      </c>
-      <c r="B28">
-        <v>6</v>
-      </c>
-      <c r="C28">
-        <v>8.9694099999999999</v>
-      </c>
-      <c r="D28">
-        <v>9.9660100000000001E-2</v>
-      </c>
-      <c r="E28">
-        <v>6</v>
-      </c>
-      <c r="F28">
-        <v>6</v>
-      </c>
-      <c r="G28">
-        <v>6</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>107.63292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>20.192499999999999</v>
-      </c>
-      <c r="D29">
-        <v>1.3461700000000001</v>
-      </c>
-      <c r="E29">
-        <v>29.853100000000001</v>
-      </c>
-      <c r="F29">
-        <v>12</v>
-      </c>
-      <c r="G29">
-        <v>6.5</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>262.5025</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>28.175799999999999</v>
-      </c>
-      <c r="D30">
-        <v>0.31306400000000001</v>
-      </c>
-      <c r="E30">
-        <v>7.0016499999999997</v>
-      </c>
-      <c r="F30">
-        <v>7</v>
-      </c>
-      <c r="G30">
-        <v>3.5</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>197.23059999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <v>6</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>45.585099999999997</v>
-      </c>
-      <c r="D31">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="E31">
-        <v>16.511900000000001</v>
-      </c>
-      <c r="F31">
-        <v>13</v>
-      </c>
-      <c r="G31">
-        <v>2.5</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>227.9255</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32">
-        <v>6</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>87.410399999999996</v>
-      </c>
-      <c r="D32">
-        <v>0.97122699999999995</v>
-      </c>
-      <c r="E32">
-        <v>7.2589699999999997</v>
-      </c>
-      <c r="F32">
-        <v>6</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>524.4624</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <v>6</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>17.695</v>
-      </c>
-      <c r="D33">
-        <v>0.19661200000000001</v>
-      </c>
-      <c r="E33">
-        <v>6.0000900000000001</v>
-      </c>
-      <c r="F33">
-        <v>6</v>
-      </c>
-      <c r="G33">
-        <v>3</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>106.17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H34">
-        <f>SUM(H14:H33)</f>
-        <v>8048.8419199999989</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35">
-        <f>SUM(H14:H33)/F9</f>
-        <v>27.028281089793818</v>
+        <v>22.158933023852274</v>
       </c>
     </row>
   </sheetData>
